--- a/backend/templates/UC-18gsm-250P-ABQR.xlsx
+++ b/backend/templates/UC-18gsm-250P-ABQR.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4E08BB-8CFC-46F9-A491-90537B509400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D54676-1AE9-40A9-A7F7-0AFE915A2CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="6" r:id="rId1"/>
@@ -29,6 +29,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -472,14 +475,6 @@
     <t>U-</t>
   </si>
   <si>
-    <t>Colour B
-L-(-12.50) T-(-8.50) U-(-4.50)</t>
-  </si>
-  <si>
-    <t>Colour L
-L-52.00 T-58.00 U-64.00</t>
-  </si>
-  <si>
     <t>Colour A
 L-49.00 T-54.00 U-59.00</t>
   </si>
@@ -514,6 +509,14 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Colour L
+L-54.00 T-59.00 U-63.00</t>
+  </si>
+  <si>
+    <t>Colour B
+L-(-11.50) T-(-8.50) U-(-5.50)</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1864,6 +1867,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2408,7 +2414,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="18">
     <dxf>
       <font>
         <strike/>
@@ -2449,44 +2455,6 @@
         <strike/>
         <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2607,45 +2575,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3040,7 +2969,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3054,35 +2983,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -3103,12 +3032,12 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:13" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="161"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="162"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3120,19 +3049,19 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="167"/>
-      <c r="K4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="169"/>
       <c r="M4" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="163"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3144,64 +3073,64 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="169"/>
-      <c r="K5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="171"/>
     </row>
     <row r="6" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="133" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="135"/>
+      <c r="A6" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="135"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="156"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="165"/>
+        <v>140</v>
+      </c>
+      <c r="G6" s="157"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="166"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137" t="s">
+      <c r="A7" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="F7" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="154" t="s">
+      <c r="G7" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="154" t="s">
+      <c r="H7" s="155" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="166"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="167"/>
     </row>
     <row r="8" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="138"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139" t="s">
+      <c r="A8" s="139"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="139"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3603,11 +3532,11 @@
       <c r="K38" s="72"/>
     </row>
     <row r="39" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="146" t="s">
+      <c r="A39" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="147"/>
-      <c r="C39" s="148"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="149"/>
       <c r="D39" s="30" t="e">
         <f t="shared" ref="D39:K39" si="0">AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3642,11 +3571,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="143" t="s">
+      <c r="A40" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="144"/>
-      <c r="C40" s="145"/>
+      <c r="B40" s="145"/>
+      <c r="C40" s="146"/>
       <c r="D40" s="33">
         <f t="shared" ref="D40:K40" si="1">MIN(D9:D38)</f>
         <v>0</v>
@@ -3681,11 +3610,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="140" t="s">
+      <c r="A41" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="141"/>
-      <c r="C41" s="142"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="143"/>
       <c r="D41" s="79">
         <f t="shared" ref="D41:K41" si="2">MAX(D9:D38)</f>
         <v>0</v>
@@ -3726,8 +3655,8 @@
       <c r="A42" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="150"/>
-      <c r="C42" s="150"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="151"/>
       <c r="D42" s="38" t="s">
         <v>22</v>
       </c>
@@ -3744,8 +3673,8 @@
     </row>
     <row r="43" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
-      <c r="B43" s="149"/>
-      <c r="C43" s="149"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="150"/>
       <c r="D43" s="38"/>
       <c r="F43" s="39"/>
       <c r="G43" s="40"/>
@@ -3754,15 +3683,15 @@
       <c r="J43" s="17"/>
     </row>
     <row r="44" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="132" t="s">
+      <c r="A44" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="132"/>
-      <c r="C44" s="132"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="133"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
       <c r="F44" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G44" s="39">
         <v>461303600</v>
@@ -3770,11 +3699,11 @@
       <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="132" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132"/>
+      <c r="A45" s="133" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
@@ -3830,64 +3759,48 @@
     <mergeCell ref="B42:C42"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D41">
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="notBetween">
+      <formula>17</formula>
       <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="lessThan">
-      <formula>17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E41">
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="notBetween">
+      <formula>18</formula>
       <formula>28</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="lessThan">
-      <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F41">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="notBetween">
+      <formula>360</formula>
       <formula>400</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="lessThan">
-      <formula>360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G41">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="notBetween">
+      <formula>0.3</formula>
       <formula>0.6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="lessThan">
-      <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H38">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="notBetween">
-      <formula>0.6</formula>
-      <formula>1.4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="notBetween">
       <formula>0.6</formula>
       <formula>1.4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I41">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="notBetween">
+      <formula>900</formula>
       <formula>1200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="lessThan">
-      <formula>900</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J41">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
       <formula>350</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:K41">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3904,7 +3817,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="I22" sqref="I22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3915,35 +3828,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -3964,18 +3877,18 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="153">
+      <c r="B4" s="154">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="208">
+      <c r="C4" s="209">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="209"/>
+      <c r="D4" s="210"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3993,25 +3906,25 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="200">
+      <c r="J4" s="201">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="201"/>
+      <c r="K4" s="202"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="159">
+      <c r="B5" s="160">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="162">
+      <c r="C5" s="163">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="163"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -4029,104 +3942,104 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="202">
+      <c r="J5" s="203">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="203"/>
+      <c r="K5" s="204"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="212" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="192"/>
+      <c r="A6" s="213" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="214"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="193"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="210" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="195"/>
-      <c r="C7" s="195"/>
-      <c r="D7" s="217" t="s">
+      <c r="A7" s="211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="195"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="193" t="s">
+      <c r="E7" s="196"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="195"/>
-      <c r="I7" s="193" t="s">
-        <v>135</v>
-      </c>
-      <c r="J7" s="194"/>
-      <c r="K7" s="205" t="s">
+      <c r="H7" s="196"/>
+      <c r="I7" s="194" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="195"/>
+      <c r="K7" s="206" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="211"/>
-      <c r="B8" s="197"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="211" t="s">
+      <c r="A8" s="212"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="223" t="s">
+      <c r="E8" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="204" t="s">
+      <c r="F8" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="196" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" s="204"/>
-      <c r="K8" s="206"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="197" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="205"/>
+      <c r="K8" s="207"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="211"/>
-      <c r="B9" s="197"/>
-      <c r="C9" s="197"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="197"/>
+      <c r="A9" s="212"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="198"/>
       <c r="I9" s="47" t="s">
         <v>128</v>
       </c>
       <c r="J9" s="48">
         <v>250</v>
       </c>
-      <c r="K9" s="206"/>
+      <c r="K9" s="207"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="211"/>
-      <c r="B10" s="197"/>
-      <c r="C10" s="197"/>
-      <c r="D10" s="222"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="199"/>
+      <c r="A10" s="212"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="225"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="200"/>
       <c r="I10" s="49" t="s">
         <v>129</v>
       </c>
       <c r="J10" s="50">
         <v>253</v>
       </c>
-      <c r="K10" s="207"/>
+      <c r="K10" s="208"/>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="86">
@@ -4144,10 +4057,10 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
       <c r="F11" s="52"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="188"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="189"/>
       <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4166,10 +4079,10 @@
       <c r="D12" s="54"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="174"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="175"/>
       <c r="K12" s="56"/>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4188,10 +4101,10 @@
       <c r="D13" s="54"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="174"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="175"/>
       <c r="K13" s="56"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4210,10 +4123,10 @@
       <c r="D14" s="54"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="174"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="175"/>
       <c r="K14" s="56"/>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4232,10 +4145,10 @@
       <c r="D15" s="54"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="174"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="175"/>
       <c r="K15" s="56"/>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4254,10 +4167,10 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="174"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="175"/>
       <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4276,10 +4189,10 @@
       <c r="D17" s="54"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="174"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="175"/>
       <c r="K17" s="56"/>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4298,10 +4211,10 @@
       <c r="D18" s="54"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="174"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="175"/>
       <c r="K18" s="56"/>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4320,10 +4233,10 @@
       <c r="D19" s="54"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="174"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="175"/>
       <c r="K19" s="56"/>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4342,10 +4255,10 @@
       <c r="D20" s="54"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="174"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="175"/>
       <c r="K20" s="56"/>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4364,10 +4277,10 @@
       <c r="D21" s="54"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="174"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="175"/>
       <c r="K21" s="56"/>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4386,10 +4299,10 @@
       <c r="D22" s="54"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="174"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="175"/>
       <c r="K22" s="56"/>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4408,10 +4321,10 @@
       <c r="D23" s="54"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="174"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="175"/>
       <c r="K23" s="56"/>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4430,10 +4343,10 @@
       <c r="D24" s="54"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="174"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="175"/>
       <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4452,10 +4365,10 @@
       <c r="D25" s="54"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="174"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="175"/>
       <c r="K25" s="56"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4474,10 +4387,10 @@
       <c r="D26" s="54"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="174"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="175"/>
       <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4496,10 +4409,10 @@
       <c r="D27" s="54"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="174"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="175"/>
       <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4518,10 +4431,10 @@
       <c r="D28" s="54"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="174"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="175"/>
       <c r="K28" s="56"/>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4540,10 +4453,10 @@
       <c r="D29" s="54"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="174"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="175"/>
       <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4562,10 +4475,10 @@
       <c r="D30" s="54"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="174"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="175"/>
       <c r="K30" s="56"/>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4584,10 +4497,10 @@
       <c r="D31" s="54"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="174"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="175"/>
       <c r="K31" s="56"/>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4606,10 +4519,10 @@
       <c r="D32" s="54"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="172"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="174"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="175"/>
       <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4628,10 +4541,10 @@
       <c r="D33" s="54"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="174"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="175"/>
       <c r="K33" s="56"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4650,10 +4563,10 @@
       <c r="D34" s="54"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55"/>
-      <c r="G34" s="171"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="174"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="174"/>
+      <c r="J34" s="175"/>
       <c r="K34" s="56"/>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4672,10 +4585,10 @@
       <c r="D35" s="54"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="173"/>
-      <c r="J35" s="174"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="173"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="175"/>
       <c r="K35" s="56"/>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4694,10 +4607,10 @@
       <c r="D36" s="54"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="173"/>
-      <c r="J36" s="174"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="173"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="175"/>
       <c r="K36" s="56"/>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4716,10 +4629,10 @@
       <c r="D37" s="54"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="173"/>
-      <c r="J37" s="174"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="175"/>
       <c r="K37" s="56"/>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4738,10 +4651,10 @@
       <c r="D38" s="54"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="173"/>
-      <c r="J38" s="174"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="174"/>
+      <c r="J38" s="175"/>
       <c r="K38" s="56"/>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4760,10 +4673,10 @@
       <c r="D39" s="54"/>
       <c r="E39" s="55"/>
       <c r="F39" s="55"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="173"/>
-      <c r="J39" s="174"/>
+      <c r="G39" s="172"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="175"/>
       <c r="K39" s="56"/>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4782,18 +4695,18 @@
       <c r="D40" s="54"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
-      <c r="G40" s="176"/>
-      <c r="H40" s="176"/>
-      <c r="I40" s="173"/>
-      <c r="J40" s="174"/>
+      <c r="G40" s="177"/>
+      <c r="H40" s="177"/>
+      <c r="I40" s="174"/>
+      <c r="J40" s="175"/>
       <c r="K40" s="56"/>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="218" t="s">
+      <c r="A41" s="219" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="219"/>
-      <c r="C41" s="219"/>
+      <c r="B41" s="220"/>
+      <c r="C41" s="220"/>
       <c r="D41" s="57" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4806,27 +4719,27 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="179" t="e">
+      <c r="G41" s="180" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="180"/>
-      <c r="I41" s="177" t="e">
+      <c r="H41" s="181"/>
+      <c r="I41" s="178" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="178"/>
+      <c r="J41" s="179"/>
       <c r="K41" s="59" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="220" t="s">
+      <c r="A42" s="221" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="221"/>
-      <c r="C42" s="221"/>
+      <c r="B42" s="222"/>
+      <c r="C42" s="222"/>
       <c r="D42" s="60">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4839,27 +4752,27 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="185">
+      <c r="G42" s="186">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="186"/>
-      <c r="I42" s="189">
+      <c r="H42" s="187"/>
+      <c r="I42" s="190">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="190"/>
+      <c r="J42" s="191"/>
       <c r="K42" s="62">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="215" t="s">
+      <c r="A43" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="216"/>
-      <c r="C43" s="216"/>
+      <c r="B43" s="217"/>
+      <c r="C43" s="217"/>
       <c r="D43" s="63">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4872,16 +4785,16 @@
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="183">
+      <c r="G43" s="184">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="184"/>
-      <c r="I43" s="181">
+      <c r="H43" s="185"/>
+      <c r="I43" s="182">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="182"/>
+      <c r="J43" s="183"/>
       <c r="K43" s="65">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4891,8 +4804,8 @@
       <c r="A44" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="150"/>
-      <c r="C44" s="150"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
       <c r="D44" s="38" t="s">
         <v>22</v>
       </c>
@@ -4909,8 +4822,8 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
-      <c r="B45" s="149"/>
-      <c r="C45" s="149"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="150"/>
       <c r="D45" s="38"/>
       <c r="F45" s="39"/>
       <c r="G45" s="40"/>
@@ -4919,15 +4832,15 @@
       <c r="J45" s="17"/>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="132"/>
-      <c r="C46" s="132"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="133"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G46" s="39">
         <f>Page1!G44</f>
@@ -4936,11 +4849,11 @@
       <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="132" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="132"/>
-      <c r="C47" s="132"/>
+      <c r="A47" s="133" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="133"/>
+      <c r="C47" s="133"/>
       <c r="D47" s="38"/>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
@@ -5092,37 +5005,37 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="notBetween">
+      <formula>700</formula>
       <formula>1000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="lessThan">
-      <formula>700</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E43">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F43">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H19 G20:G39 G40:H43">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="notBetween">
+      <formula>50</formula>
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
-      <formula>50</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:J43">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="notBetween">
+      <formula>250</formula>
+      <formula>253</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K43">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="notBetween">
+      <formula>410</formula>
       <formula>450</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
-      <formula>410</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5138,7 +5051,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5149,35 +5062,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -5198,15 +5111,15 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="208">
+      <c r="B4" s="154"/>
+      <c r="C4" s="209">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="209"/>
+      <c r="D4" s="210"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -5224,22 +5137,22 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="200">
+      <c r="J4" s="201">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="201"/>
+      <c r="K4" s="202"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="162">
+      <c r="B5" s="160"/>
+      <c r="C5" s="163">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="163"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -5257,79 +5170,79 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="202">
+      <c r="J5" s="203">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="203"/>
+      <c r="K5" s="204"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="225" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="226"/>
-      <c r="C6" s="227"/>
-      <c r="D6" s="228"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="157"/>
+      <c r="A6" s="226" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="227"/>
+      <c r="C6" s="228"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="158"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="205"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="206"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="210" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="195"/>
-      <c r="C7" s="195"/>
-      <c r="D7" s="217" t="s">
+      <c r="A7" s="211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="234"/>
-      <c r="F7" s="234"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="229" t="s">
+      <c r="E7" s="235"/>
+      <c r="F7" s="235"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="230" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="211"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="206"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="198"/>
+      <c r="K7" s="207"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="211"/>
-      <c r="B8" s="197"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="232" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="223" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="223" t="s">
+      <c r="A8" s="212"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="233" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="224" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="223" t="s">
+      <c r="F8" s="224" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="224" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="230"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="197"/>
-      <c r="K8" s="206"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="207"/>
     </row>
     <row r="9" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="211"/>
-      <c r="B9" s="197"/>
-      <c r="C9" s="197"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="206"/>
+      <c r="A9" s="212"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="232"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="207"/>
     </row>
     <row r="10" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="86">
@@ -5349,9 +5262,9 @@
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="206"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="207"/>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="89">
@@ -5371,9 +5284,9 @@
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="206"/>
+      <c r="I11" s="212"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="207"/>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="89">
@@ -5393,9 +5306,9 @@
       <c r="F12" s="26"/>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="211"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="206"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="207"/>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="89">
@@ -5415,9 +5328,9 @@
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="206"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="207"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="89">
@@ -5437,9 +5350,9 @@
       <c r="F14" s="26"/>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="211"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="206"/>
+      <c r="I14" s="212"/>
+      <c r="J14" s="198"/>
+      <c r="K14" s="207"/>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="89">
@@ -5459,9 +5372,9 @@
       <c r="F15" s="26"/>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="211"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="206"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="207"/>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="89">
@@ -5481,9 +5394,9 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="206"/>
+      <c r="I16" s="212"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="207"/>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="89">
@@ -5503,9 +5416,9 @@
       <c r="F17" s="26"/>
       <c r="G17" s="27"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="211"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="206"/>
+      <c r="I17" s="212"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="207"/>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="89">
@@ -5525,9 +5438,9 @@
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="206"/>
+      <c r="I18" s="212"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="207"/>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="89">
@@ -5547,9 +5460,9 @@
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="206"/>
+      <c r="I19" s="212"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="207"/>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="95">
@@ -5569,9 +5482,9 @@
       <c r="F20" s="26"/>
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="211"/>
-      <c r="J20" s="197"/>
-      <c r="K20" s="206"/>
+      <c r="I20" s="212"/>
+      <c r="J20" s="198"/>
+      <c r="K20" s="207"/>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="89">
@@ -5591,9 +5504,9 @@
       <c r="F21" s="26"/>
       <c r="G21" s="27"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="211"/>
-      <c r="J21" s="197"/>
-      <c r="K21" s="206"/>
+      <c r="I21" s="212"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="207"/>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="89">
@@ -5613,9 +5526,9 @@
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="211"/>
-      <c r="J22" s="197"/>
-      <c r="K22" s="206"/>
+      <c r="I22" s="212"/>
+      <c r="J22" s="198"/>
+      <c r="K22" s="207"/>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="89">
@@ -5635,9 +5548,9 @@
       <c r="F23" s="26"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="211"/>
-      <c r="J23" s="197"/>
-      <c r="K23" s="206"/>
+      <c r="I23" s="212"/>
+      <c r="J23" s="198"/>
+      <c r="K23" s="207"/>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="89">
@@ -5657,9 +5570,9 @@
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="211"/>
-      <c r="J24" s="197"/>
-      <c r="K24" s="206"/>
+      <c r="I24" s="212"/>
+      <c r="J24" s="198"/>
+      <c r="K24" s="207"/>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="89">
@@ -5679,9 +5592,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="211"/>
-      <c r="J25" s="197"/>
-      <c r="K25" s="206"/>
+      <c r="I25" s="212"/>
+      <c r="J25" s="198"/>
+      <c r="K25" s="207"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="89">
@@ -5701,9 +5614,9 @@
       <c r="F26" s="26"/>
       <c r="G26" s="27"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="211"/>
-      <c r="J26" s="197"/>
-      <c r="K26" s="206"/>
+      <c r="I26" s="212"/>
+      <c r="J26" s="198"/>
+      <c r="K26" s="207"/>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="89">
@@ -5723,9 +5636,9 @@
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="211"/>
-      <c r="J27" s="197"/>
-      <c r="K27" s="206"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="198"/>
+      <c r="K27" s="207"/>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="89">
@@ -5745,9 +5658,9 @@
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="211"/>
-      <c r="J28" s="197"/>
-      <c r="K28" s="206"/>
+      <c r="I28" s="212"/>
+      <c r="J28" s="198"/>
+      <c r="K28" s="207"/>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="89">
@@ -5767,9 +5680,9 @@
       <c r="F29" s="26"/>
       <c r="G29" s="27"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="211"/>
-      <c r="J29" s="197"/>
-      <c r="K29" s="206"/>
+      <c r="I29" s="212"/>
+      <c r="J29" s="198"/>
+      <c r="K29" s="207"/>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="95">
@@ -5789,9 +5702,9 @@
       <c r="F30" s="26"/>
       <c r="G30" s="27"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="211"/>
-      <c r="J30" s="197"/>
-      <c r="K30" s="206"/>
+      <c r="I30" s="212"/>
+      <c r="J30" s="198"/>
+      <c r="K30" s="207"/>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="89">
@@ -5811,9 +5724,9 @@
       <c r="F31" s="26"/>
       <c r="G31" s="27"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="211"/>
-      <c r="J31" s="197"/>
-      <c r="K31" s="206"/>
+      <c r="I31" s="212"/>
+      <c r="J31" s="198"/>
+      <c r="K31" s="207"/>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="89">
@@ -5833,9 +5746,9 @@
       <c r="F32" s="26"/>
       <c r="G32" s="27"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="211"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="206"/>
+      <c r="I32" s="212"/>
+      <c r="J32" s="198"/>
+      <c r="K32" s="207"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="89">
@@ -5855,9 +5768,9 @@
       <c r="F33" s="26"/>
       <c r="G33" s="27"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="211"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="206"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="198"/>
+      <c r="K33" s="207"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="89">
@@ -5877,9 +5790,9 @@
       <c r="F34" s="26"/>
       <c r="G34" s="27"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="211"/>
-      <c r="J34" s="197"/>
-      <c r="K34" s="206"/>
+      <c r="I34" s="212"/>
+      <c r="J34" s="198"/>
+      <c r="K34" s="207"/>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="89">
@@ -5899,9 +5812,9 @@
       <c r="F35" s="26"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="211"/>
-      <c r="J35" s="197"/>
-      <c r="K35" s="206"/>
+      <c r="I35" s="212"/>
+      <c r="J35" s="198"/>
+      <c r="K35" s="207"/>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="89">
@@ -5921,9 +5834,9 @@
       <c r="F36" s="26"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="211"/>
-      <c r="J36" s="197"/>
-      <c r="K36" s="206"/>
+      <c r="I36" s="212"/>
+      <c r="J36" s="198"/>
+      <c r="K36" s="207"/>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="89">
@@ -5943,9 +5856,9 @@
       <c r="F37" s="26"/>
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="211"/>
-      <c r="J37" s="197"/>
-      <c r="K37" s="206"/>
+      <c r="I37" s="212"/>
+      <c r="J37" s="198"/>
+      <c r="K37" s="207"/>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="89">
@@ -5965,9 +5878,9 @@
       <c r="F38" s="26"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="211"/>
-      <c r="J38" s="197"/>
-      <c r="K38" s="206"/>
+      <c r="I38" s="212"/>
+      <c r="J38" s="198"/>
+      <c r="K38" s="207"/>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="96">
@@ -5987,16 +5900,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="211"/>
-      <c r="J39" s="197"/>
-      <c r="K39" s="206"/>
+      <c r="I39" s="212"/>
+      <c r="J39" s="198"/>
+      <c r="K39" s="207"/>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="235" t="s">
+      <c r="A40" s="236" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="236"/>
-      <c r="C40" s="236"/>
+      <c r="B40" s="237"/>
+      <c r="C40" s="237"/>
       <c r="D40" s="29" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -6017,16 +5930,16 @@
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="197"/>
-      <c r="J40" s="197"/>
-      <c r="K40" s="206"/>
+      <c r="I40" s="198"/>
+      <c r="J40" s="198"/>
+      <c r="K40" s="207"/>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="220" t="s">
+      <c r="A41" s="221" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="221"/>
-      <c r="C41" s="221"/>
+      <c r="B41" s="222"/>
+      <c r="C41" s="222"/>
       <c r="D41" s="32">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -6047,16 +5960,16 @@
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="197"/>
-      <c r="J41" s="197"/>
-      <c r="K41" s="206"/>
+      <c r="I41" s="198"/>
+      <c r="J41" s="198"/>
+      <c r="K41" s="207"/>
     </row>
     <row r="42" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="215" t="s">
+      <c r="A42" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="216"/>
-      <c r="C42" s="216"/>
+      <c r="B42" s="217"/>
+      <c r="C42" s="217"/>
       <c r="D42" s="35">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -6077,16 +5990,16 @@
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="199"/>
-      <c r="J42" s="199"/>
-      <c r="K42" s="207"/>
+      <c r="I42" s="200"/>
+      <c r="J42" s="200"/>
+      <c r="K42" s="208"/>
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="150"/>
-      <c r="C43" s="150"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="151"/>
       <c r="D43" s="38" t="s">
         <v>22</v>
       </c>
@@ -6103,8 +6016,8 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
-      <c r="B44" s="149"/>
-      <c r="C44" s="149"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="150"/>
       <c r="D44" s="38"/>
       <c r="F44" s="39"/>
       <c r="G44" s="40"/>
@@ -6113,15 +6026,15 @@
       <c r="J44" s="17"/>
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="132" t="s">
+      <c r="A45" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
       <c r="F45" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G45" s="39">
         <f>Page1!G44</f>
@@ -6130,11 +6043,11 @@
       <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="132" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="132"/>
-      <c r="C46" s="132"/>
+      <c r="A46" s="133" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="133"/>
+      <c r="C46" s="133"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
@@ -6187,8 +6100,8 @@
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="notBetween">
-      <formula>52</formula>
-      <formula>64</formula>
+      <formula>54</formula>
+      <formula>63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E42">
@@ -6199,8 +6112,8 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F42">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="notBetween">
-      <formula>-12.5</formula>
-      <formula>-4.5</formula>
+      <formula>-11.5</formula>
+      <formula>-5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H42">
@@ -6222,7 +6135,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6235,15 +6148,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="242" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="244"/>
     </row>
     <row r="2" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100"/>
@@ -6257,37 +6170,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="99" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="286" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="287"/>
-      <c r="C3" s="287"/>
-      <c r="D3" s="287"/>
-      <c r="E3" s="287"/>
-      <c r="F3" s="287"/>
-      <c r="G3" s="288"/>
+      <c r="A3" s="287" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="288"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="288"/>
+      <c r="F3" s="288"/>
+      <c r="G3" s="289"/>
     </row>
     <row r="4" spans="1:7" s="99" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="197"/>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="206"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="207"/>
     </row>
     <row r="5" spans="1:7" s="99" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="283" t="s">
+      <c r="A5" s="284" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="284"/>
-      <c r="C5" s="284"/>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="285"/>
+      <c r="B5" s="285"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
+      <c r="G5" s="286"/>
     </row>
     <row r="6" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="103" t="s">
@@ -6299,14 +6212,14 @@
       <c r="C6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="244" t="s">
+      <c r="D6" s="245" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="245"/>
-      <c r="F6" s="237" t="s">
+      <c r="E6" s="246"/>
+      <c r="F6" s="238" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="246">
+      <c r="G6" s="247">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
@@ -6319,13 +6232,13 @@
       <c r="C7" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="244">
+      <c r="D7" s="245">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="245"/>
-      <c r="F7" s="237"/>
-      <c r="G7" s="247"/>
+      <c r="E7" s="246"/>
+      <c r="F7" s="238"/>
+      <c r="G7" s="248"/>
     </row>
     <row r="8" spans="1:7" s="99" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="103" t="s">
@@ -6338,15 +6251,15 @@
       <c r="C8" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="237">
+      <c r="D8" s="238">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="237"/>
-      <c r="F8" s="238" t="s">
+      <c r="E8" s="238"/>
+      <c r="F8" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="246">
+      <c r="G8" s="247">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
@@ -6359,15 +6272,15 @@
         <f>Page1!G44</f>
         <v>461303600</v>
       </c>
-      <c r="C9" s="238" t="s">
+      <c r="C9" s="239" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="293" t="s">
+      <c r="D9" s="294" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="294"/>
-      <c r="F9" s="239"/>
-      <c r="G9" s="291"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="292"/>
     </row>
     <row r="10" spans="1:7" s="99" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="110" t="s">
@@ -6377,34 +6290,34 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="240"/>
-      <c r="D10" s="295"/>
-      <c r="E10" s="296"/>
-      <c r="F10" s="240"/>
-      <c r="G10" s="292"/>
+      <c r="C10" s="241"/>
+      <c r="D10" s="296"/>
+      <c r="E10" s="297"/>
+      <c r="F10" s="241"/>
+      <c r="G10" s="293"/>
     </row>
     <row r="11" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="297" t="s">
+      <c r="A11" s="298" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="299" t="s">
+      <c r="B11" s="300" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="301" t="s">
+      <c r="C11" s="302" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="302"/>
-      <c r="E11" s="303"/>
-      <c r="F11" s="299" t="s">
+      <c r="D11" s="303"/>
+      <c r="E11" s="304"/>
+      <c r="F11" s="300" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="304" t="s">
+      <c r="G11" s="305" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="298"/>
-      <c r="B12" s="300"/>
+      <c r="A12" s="299"/>
+      <c r="B12" s="301"/>
       <c r="C12" s="112" t="s">
         <v>63</v>
       </c>
@@ -6414,8 +6327,8 @@
       <c r="E12" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="300"/>
-      <c r="G12" s="305"/>
+      <c r="F12" s="301"/>
+      <c r="G12" s="306"/>
     </row>
     <row r="13" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
@@ -6485,7 +6398,7 @@
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="248" t="s">
+      <c r="G15" s="249" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6509,7 +6422,7 @@
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="230"/>
+      <c r="G16" s="231"/>
     </row>
     <row r="17" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="117" t="s">
@@ -6531,7 +6444,7 @@
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="230"/>
+      <c r="G17" s="231"/>
     </row>
     <row r="18" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="117" t="s">
@@ -6553,7 +6466,7 @@
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="230"/>
+      <c r="G18" s="231"/>
     </row>
     <row r="19" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="117" t="s">
@@ -6575,7 +6488,7 @@
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="230"/>
+      <c r="G19" s="231"/>
     </row>
     <row r="20" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="117" t="s">
@@ -6597,7 +6510,7 @@
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="230"/>
+      <c r="G20" s="231"/>
     </row>
     <row r="21" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="117" t="s">
@@ -6619,7 +6532,7 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="230"/>
+      <c r="G21" s="231"/>
     </row>
     <row r="22" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="117" t="s">
@@ -6641,7 +6554,7 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="166"/>
+      <c r="G22" s="167"/>
     </row>
     <row r="23" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="117" t="s">
@@ -6741,26 +6654,26 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="249" t="s">
+      <c r="A27" s="250" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="250"/>
-      <c r="C27" s="250"/>
-      <c r="D27" s="250"/>
-      <c r="E27" s="250"/>
-      <c r="F27" s="250"/>
-      <c r="G27" s="251"/>
+      <c r="B27" s="251"/>
+      <c r="C27" s="251"/>
+      <c r="D27" s="251"/>
+      <c r="E27" s="251"/>
+      <c r="F27" s="251"/>
+      <c r="G27" s="252"/>
     </row>
     <row r="28" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="252" t="s">
+      <c r="A28" s="253" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="253"/>
-      <c r="C28" s="254" t="s">
+      <c r="B28" s="254"/>
+      <c r="C28" s="255" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="255"/>
-      <c r="E28" s="256"/>
+      <c r="D28" s="256"/>
+      <c r="E28" s="257"/>
       <c r="F28" s="126" t="s">
         <v>96</v>
       </c>
@@ -6769,15 +6682,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="257" t="s">
+      <c r="A29" s="258" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="245"/>
-      <c r="C29" s="258" t="s">
+      <c r="B29" s="246"/>
+      <c r="C29" s="259" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="259"/>
-      <c r="E29" s="260"/>
+      <c r="D29" s="260"/>
+      <c r="E29" s="261"/>
       <c r="F29" s="60" t="s">
         <v>96</v>
       </c>
@@ -6786,15 +6699,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="257" t="s">
+      <c r="A30" s="258" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="245"/>
-      <c r="C30" s="258" t="s">
+      <c r="B30" s="246"/>
+      <c r="C30" s="259" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="259"/>
-      <c r="E30" s="260"/>
+      <c r="D30" s="260"/>
+      <c r="E30" s="261"/>
       <c r="F30" s="60" t="s">
         <v>96</v>
       </c>
@@ -6803,15 +6716,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="257" t="s">
+      <c r="A31" s="258" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="245"/>
-      <c r="C31" s="258" t="s">
+      <c r="B31" s="246"/>
+      <c r="C31" s="259" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="259"/>
-      <c r="E31" s="260"/>
+      <c r="D31" s="260"/>
+      <c r="E31" s="261"/>
       <c r="F31" s="60" t="s">
         <v>96</v>
       </c>
@@ -6820,15 +6733,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="257" t="s">
+      <c r="A32" s="258" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="245"/>
-      <c r="C32" s="258" t="s">
+      <c r="B32" s="246"/>
+      <c r="C32" s="259" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="259"/>
-      <c r="E32" s="260"/>
+      <c r="D32" s="260"/>
+      <c r="E32" s="261"/>
       <c r="F32" s="60" t="s">
         <v>96</v>
       </c>
@@ -6836,61 +6749,61 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="257" t="s">
+    <row r="33" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="258" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="245"/>
-      <c r="C33" s="258" t="s">
+      <c r="B33" s="246"/>
+      <c r="C33" s="259" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="259"/>
-      <c r="E33" s="260"/>
+      <c r="D33" s="260"/>
+      <c r="E33" s="261"/>
       <c r="F33" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="67" t="s">
+      <c r="G33" s="121" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="99" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="158" t="s">
+      <c r="A34" s="159" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="159"/>
-      <c r="C34" s="263" t="s">
+      <c r="B34" s="160"/>
+      <c r="C34" s="264" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="264"/>
-      <c r="E34" s="265"/>
+      <c r="D34" s="265"/>
+      <c r="E34" s="266"/>
       <c r="F34" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="67" t="s">
+      <c r="G34" s="132" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="249" t="s">
+      <c r="A35" s="250" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="250"/>
-      <c r="C35" s="250"/>
-      <c r="D35" s="250"/>
-      <c r="E35" s="250"/>
-      <c r="F35" s="250"/>
-      <c r="G35" s="251"/>
+      <c r="B35" s="251"/>
+      <c r="C35" s="251"/>
+      <c r="D35" s="251"/>
+      <c r="E35" s="251"/>
+      <c r="F35" s="251"/>
+      <c r="G35" s="252"/>
     </row>
     <row r="36" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="152" t="s">
+      <c r="A36" s="153" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="153"/>
-      <c r="C36" s="261" t="s">
+      <c r="B36" s="154"/>
+      <c r="C36" s="262" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="262"/>
-      <c r="E36" s="153"/>
+      <c r="D36" s="263"/>
+      <c r="E36" s="154"/>
       <c r="F36" s="10" t="s">
         <v>96</v>
       </c>
@@ -6899,15 +6812,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="252" t="s">
+      <c r="A37" s="253" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="253"/>
-      <c r="C37" s="244" t="s">
+      <c r="B37" s="254"/>
+      <c r="C37" s="245" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="267"/>
-      <c r="E37" s="245"/>
+      <c r="D37" s="268"/>
+      <c r="E37" s="246"/>
       <c r="F37" s="119" t="s">
         <v>96</v>
       </c>
@@ -6916,15 +6829,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="257" t="s">
+      <c r="A38" s="258" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="245"/>
-      <c r="C38" s="244" t="s">
+      <c r="B38" s="246"/>
+      <c r="C38" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="267"/>
-      <c r="E38" s="245"/>
+      <c r="D38" s="268"/>
+      <c r="E38" s="246"/>
       <c r="F38" s="119" t="s">
         <v>96</v>
       </c>
@@ -6933,15 +6846,15 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="158" t="s">
+      <c r="A39" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="159"/>
-      <c r="C39" s="289" t="s">
+      <c r="B39" s="160"/>
+      <c r="C39" s="290" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="290"/>
-      <c r="E39" s="159"/>
+      <c r="D39" s="291"/>
+      <c r="E39" s="160"/>
       <c r="F39" s="1" t="s">
         <v>96</v>
       </c>
@@ -6950,50 +6863,50 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="268" t="s">
+      <c r="A40" s="269" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="269"/>
-      <c r="C40" s="270" t="s">
+      <c r="B40" s="270"/>
+      <c r="C40" s="271" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="272"/>
+      <c r="E40" s="273"/>
+      <c r="F40" s="271" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="273"/>
+    </row>
+    <row r="41" spans="1:7" s="99" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="274"/>
+      <c r="B41" s="275"/>
+      <c r="C41" s="212"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="207"/>
+      <c r="F41" s="278"/>
+      <c r="G41" s="279"/>
+    </row>
+    <row r="42" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="276"/>
+      <c r="B42" s="277"/>
+      <c r="C42" s="280" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="281"/>
+      <c r="E42" s="282"/>
+      <c r="F42" s="280" t="s">
         <v>139</v>
       </c>
-      <c r="D40" s="271"/>
-      <c r="E40" s="272"/>
-      <c r="F40" s="270" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40" s="272"/>
-    </row>
-    <row r="41" spans="1:7" s="99" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="273"/>
-      <c r="B41" s="274"/>
-      <c r="C41" s="211"/>
-      <c r="D41" s="197"/>
-      <c r="E41" s="206"/>
-      <c r="F41" s="277"/>
-      <c r="G41" s="278"/>
-    </row>
-    <row r="42" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="275"/>
-      <c r="B42" s="276"/>
-      <c r="C42" s="279" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="280"/>
-      <c r="E42" s="281"/>
-      <c r="F42" s="279" t="s">
-        <v>141</v>
-      </c>
-      <c r="G42" s="281"/>
+      <c r="G42" s="282"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="128"/>
       <c r="B43" s="128"/>
       <c r="C43" s="128"/>
       <c r="D43" s="128"/>
-      <c r="E43" s="306"/>
-      <c r="F43" s="306"/>
-      <c r="G43" s="306"/>
+      <c r="E43" s="307"/>
+      <c r="F43" s="307"/>
+      <c r="G43" s="307"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
@@ -7002,21 +6915,21 @@
       <c r="B44" s="129"/>
       <c r="C44" s="131"/>
       <c r="D44" s="128"/>
-      <c r="E44" s="266"/>
-      <c r="F44" s="266"/>
-      <c r="G44" s="266"/>
+      <c r="E44" s="267"/>
+      <c r="F44" s="267"/>
+      <c r="G44" s="267"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="282" t="s">
+      <c r="A46" s="283" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="282"/>
+      <c r="B46" s="283"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="282" t="s">
+      <c r="A47" s="283" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="282"/>
+      <c r="B47" s="283"/>
     </row>
   </sheetData>
   <mergeCells count="55">

--- a/backend/templates/UC-18gsm-250P-ABQR.xlsx
+++ b/backend/templates/UC-18gsm-250P-ABQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D54676-1AE9-40A9-A7F7-0AFE915A2CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31E0DFD-7725-4E2F-BBC0-22D55FE6D563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="142">
   <si>
     <t>Sample No.</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>Unicharm</t>
-  </si>
-  <si>
-    <t># 02</t>
   </si>
   <si>
     <t xml:space="preserve">Production Date </t>
@@ -1871,6 +1868,78 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1886,15 +1955,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1928,106 +1991,128 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2036,6 +2121,10 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2048,168 +2137,262 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2221,194 +2404,8 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2983,35 +2980,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -3032,12 +3029,12 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:13" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="154"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="162"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="145"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3049,19 +3046,19 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="168"/>
-      <c r="K4" s="169"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
       <c r="M4" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="160"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="164"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3073,28 +3070,28 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="170"/>
-      <c r="K5" s="171"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="154"/>
     </row>
     <row r="6" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="136"/>
+      <c r="A6" s="156" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="157"/>
+      <c r="C6" s="158"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="157"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="166"/>
+        <v>139</v>
+      </c>
+      <c r="G6" s="140"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="149"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="159" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="138"/>
@@ -3108,29 +3105,29 @@
       <c r="F7" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="155" t="s">
+      <c r="G7" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="155" t="s">
-        <v>127</v>
+      <c r="H7" s="136" t="s">
+        <v>126</v>
       </c>
       <c r="I7" s="138" t="s">
         <v>1</v>
       </c>
       <c r="J7" s="138"/>
-      <c r="K7" s="167"/>
+      <c r="K7" s="150"/>
     </row>
     <row r="8" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140" t="s">
+      <c r="A8" s="160"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="140"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3532,11 +3529,11 @@
       <c r="K38" s="72"/>
     </row>
     <row r="39" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="147" t="s">
+      <c r="A39" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="148"/>
-      <c r="C39" s="149"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="169"/>
       <c r="D39" s="30" t="e">
         <f t="shared" ref="D39:K39" si="0">AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3571,11 +3568,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="144" t="s">
+      <c r="A40" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="145"/>
-      <c r="C40" s="146"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="166"/>
       <c r="D40" s="33">
         <f t="shared" ref="D40:K40" si="1">MIN(D9:D38)</f>
         <v>0</v>
@@ -3610,11 +3607,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="141" t="s">
+      <c r="A41" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="142"/>
-      <c r="C41" s="143"/>
+      <c r="B41" s="162"/>
+      <c r="C41" s="163"/>
       <c r="D41" s="79">
         <f t="shared" ref="D41:K41" si="2">MAX(D9:D38)</f>
         <v>0</v>
@@ -3655,8 +3652,8 @@
       <c r="A42" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="151"/>
-      <c r="C42" s="151"/>
+      <c r="B42" s="171"/>
+      <c r="C42" s="171"/>
       <c r="D42" s="38" t="s">
         <v>22</v>
       </c>
@@ -3673,8 +3670,8 @@
     </row>
     <row r="43" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
-      <c r="B43" s="150"/>
-      <c r="C43" s="150"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="170"/>
       <c r="D43" s="38"/>
       <c r="F43" s="39"/>
       <c r="G43" s="40"/>
@@ -3683,15 +3680,15 @@
       <c r="J43" s="17"/>
     </row>
     <row r="44" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="133" t="s">
+      <c r="A44" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="133"/>
-      <c r="C44" s="133"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="155"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
       <c r="F44" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G44" s="39">
         <v>461303600</v>
@@ -3699,11 +3696,11 @@
       <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="133" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
+      <c r="A45" s="155" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="155"/>
+      <c r="C45" s="155"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
@@ -3732,6 +3729,16 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A4:B4"/>
@@ -3747,16 +3754,6 @@
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D41">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="notBetween">
@@ -3828,35 +3825,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -3877,18 +3874,18 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="154">
+      <c r="B4" s="135">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="209">
+      <c r="C4" s="205">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="210"/>
+      <c r="D4" s="181"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3906,25 +3903,25 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="201">
+      <c r="J4" s="198">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="202"/>
+      <c r="K4" s="199"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="160">
+      <c r="B5" s="143">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="163">
+      <c r="C5" s="146">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3942,104 +3939,104 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="203">
+      <c r="J5" s="200">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="204"/>
+      <c r="K5" s="201"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="213" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="214"/>
-      <c r="C6" s="215"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="193"/>
+      <c r="A6" s="172" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="173"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="192"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="211" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="218" t="s">
+      <c r="A7" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="196"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="194" t="s">
+      <c r="E7" s="176"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="196"/>
-      <c r="I7" s="194" t="s">
-        <v>133</v>
-      </c>
-      <c r="J7" s="195"/>
-      <c r="K7" s="206" t="s">
-        <v>126</v>
+      <c r="H7" s="176"/>
+      <c r="I7" s="193" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="177"/>
+      <c r="K7" s="202" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="212"/>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="212" t="s">
+      <c r="A8" s="186"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="224" t="s">
+      <c r="E8" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="205" t="s">
+      <c r="F8" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="197"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="197" t="s">
-        <v>132</v>
-      </c>
-      <c r="J8" s="205"/>
-      <c r="K8" s="207"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="194" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="189"/>
+      <c r="K8" s="203"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="212"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="198"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="195"/>
       <c r="I9" s="47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9" s="48">
         <v>250</v>
       </c>
-      <c r="K9" s="207"/>
+      <c r="K9" s="203"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="212"/>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="225"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="200"/>
+      <c r="A10" s="186"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="197"/>
       <c r="I10" s="49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J10" s="50">
         <v>253</v>
       </c>
-      <c r="K10" s="208"/>
+      <c r="K10" s="204"/>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="86">
@@ -4057,10 +4054,10 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
       <c r="F11" s="52"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="189"/>
+      <c r="G11" s="221"/>
+      <c r="H11" s="221"/>
+      <c r="I11" s="206"/>
+      <c r="J11" s="207"/>
       <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4079,10 +4076,10 @@
       <c r="D12" s="54"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="175"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="214"/>
+      <c r="I12" s="208"/>
+      <c r="J12" s="209"/>
       <c r="K12" s="56"/>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4101,10 +4098,10 @@
       <c r="D13" s="54"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="175"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="208"/>
+      <c r="J13" s="209"/>
       <c r="K13" s="56"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4123,10 +4120,10 @@
       <c r="D14" s="54"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="175"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="214"/>
+      <c r="I14" s="208"/>
+      <c r="J14" s="209"/>
       <c r="K14" s="56"/>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4145,10 +4142,10 @@
       <c r="D15" s="54"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="175"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="214"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="209"/>
       <c r="K15" s="56"/>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4167,10 +4164,10 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="175"/>
+      <c r="G16" s="221"/>
+      <c r="H16" s="221"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="209"/>
       <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4189,10 +4186,10 @@
       <c r="D17" s="54"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="175"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="214"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="209"/>
       <c r="K17" s="56"/>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4211,10 +4208,10 @@
       <c r="D18" s="54"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="175"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="209"/>
       <c r="K18" s="56"/>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4233,10 +4230,10 @@
       <c r="D19" s="54"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="175"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="214"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="209"/>
       <c r="K19" s="56"/>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4255,10 +4252,10 @@
       <c r="D20" s="54"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="175"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="220"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="209"/>
       <c r="K20" s="56"/>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4277,10 +4274,10 @@
       <c r="D21" s="54"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="175"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="220"/>
+      <c r="I21" s="208"/>
+      <c r="J21" s="209"/>
       <c r="K21" s="56"/>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4299,10 +4296,10 @@
       <c r="D22" s="54"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="175"/>
+      <c r="G22" s="219"/>
+      <c r="H22" s="220"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="209"/>
       <c r="K22" s="56"/>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4321,10 +4318,10 @@
       <c r="D23" s="54"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="175"/>
+      <c r="G23" s="219"/>
+      <c r="H23" s="220"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="209"/>
       <c r="K23" s="56"/>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4343,10 +4340,10 @@
       <c r="D24" s="54"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="175"/>
+      <c r="G24" s="219"/>
+      <c r="H24" s="220"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="209"/>
       <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4365,10 +4362,10 @@
       <c r="D25" s="54"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="175"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="220"/>
+      <c r="I25" s="208"/>
+      <c r="J25" s="209"/>
       <c r="K25" s="56"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4387,10 +4384,10 @@
       <c r="D26" s="54"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="175"/>
+      <c r="G26" s="219"/>
+      <c r="H26" s="220"/>
+      <c r="I26" s="208"/>
+      <c r="J26" s="209"/>
       <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4409,10 +4406,10 @@
       <c r="D27" s="54"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="175"/>
+      <c r="G27" s="219"/>
+      <c r="H27" s="220"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="209"/>
       <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4431,10 +4428,10 @@
       <c r="D28" s="54"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="175"/>
+      <c r="G28" s="219"/>
+      <c r="H28" s="220"/>
+      <c r="I28" s="208"/>
+      <c r="J28" s="209"/>
       <c r="K28" s="56"/>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4453,10 +4450,10 @@
       <c r="D29" s="54"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="175"/>
+      <c r="G29" s="219"/>
+      <c r="H29" s="220"/>
+      <c r="I29" s="208"/>
+      <c r="J29" s="209"/>
       <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4475,10 +4472,10 @@
       <c r="D30" s="54"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="175"/>
+      <c r="G30" s="219"/>
+      <c r="H30" s="220"/>
+      <c r="I30" s="208"/>
+      <c r="J30" s="209"/>
       <c r="K30" s="56"/>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4497,10 +4494,10 @@
       <c r="D31" s="54"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="175"/>
+      <c r="G31" s="219"/>
+      <c r="H31" s="220"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="209"/>
       <c r="K31" s="56"/>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4519,10 +4516,10 @@
       <c r="D32" s="54"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="175"/>
+      <c r="G32" s="219"/>
+      <c r="H32" s="220"/>
+      <c r="I32" s="208"/>
+      <c r="J32" s="209"/>
       <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4541,10 +4538,10 @@
       <c r="D33" s="54"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="175"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="209"/>
       <c r="K33" s="56"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4563,10 +4560,10 @@
       <c r="D34" s="54"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="175"/>
+      <c r="G34" s="219"/>
+      <c r="H34" s="220"/>
+      <c r="I34" s="208"/>
+      <c r="J34" s="209"/>
       <c r="K34" s="56"/>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4585,10 +4582,10 @@
       <c r="D35" s="54"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="173"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="175"/>
+      <c r="G35" s="219"/>
+      <c r="H35" s="220"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="209"/>
       <c r="K35" s="56"/>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4607,10 +4604,10 @@
       <c r="D36" s="54"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="174"/>
-      <c r="J36" s="175"/>
+      <c r="G36" s="219"/>
+      <c r="H36" s="220"/>
+      <c r="I36" s="208"/>
+      <c r="J36" s="209"/>
       <c r="K36" s="56"/>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4629,10 +4626,10 @@
       <c r="D37" s="54"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="174"/>
-      <c r="J37" s="175"/>
+      <c r="G37" s="219"/>
+      <c r="H37" s="220"/>
+      <c r="I37" s="208"/>
+      <c r="J37" s="209"/>
       <c r="K37" s="56"/>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4651,10 +4648,10 @@
       <c r="D38" s="54"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="174"/>
-      <c r="J38" s="175"/>
+      <c r="G38" s="219"/>
+      <c r="H38" s="220"/>
+      <c r="I38" s="208"/>
+      <c r="J38" s="209"/>
       <c r="K38" s="56"/>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4673,10 +4670,10 @@
       <c r="D39" s="54"/>
       <c r="E39" s="55"/>
       <c r="F39" s="55"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="173"/>
-      <c r="I39" s="174"/>
-      <c r="J39" s="175"/>
+      <c r="G39" s="219"/>
+      <c r="H39" s="220"/>
+      <c r="I39" s="208"/>
+      <c r="J39" s="209"/>
       <c r="K39" s="56"/>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4695,18 +4692,18 @@
       <c r="D40" s="54"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
-      <c r="G40" s="177"/>
-      <c r="H40" s="177"/>
-      <c r="I40" s="174"/>
-      <c r="J40" s="175"/>
+      <c r="G40" s="214"/>
+      <c r="H40" s="214"/>
+      <c r="I40" s="208"/>
+      <c r="J40" s="209"/>
       <c r="K40" s="56"/>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="219" t="s">
+      <c r="A41" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="220"/>
-      <c r="C41" s="220"/>
+      <c r="B41" s="183"/>
+      <c r="C41" s="183"/>
       <c r="D41" s="57" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4719,27 +4716,27 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="180" t="e">
+      <c r="G41" s="224" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="181"/>
-      <c r="I41" s="178" t="e">
+      <c r="H41" s="225"/>
+      <c r="I41" s="222" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="179"/>
+      <c r="J41" s="223"/>
       <c r="K41" s="59" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="221" t="s">
+      <c r="A42" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="222"/>
-      <c r="C42" s="222"/>
+      <c r="B42" s="185"/>
+      <c r="C42" s="185"/>
       <c r="D42" s="60">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4752,27 +4749,27 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="186">
+      <c r="G42" s="217">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="187"/>
-      <c r="I42" s="190">
+      <c r="H42" s="218"/>
+      <c r="I42" s="210">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="191"/>
+      <c r="J42" s="211"/>
       <c r="K42" s="62">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="216" t="s">
+      <c r="A43" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="217"/>
-      <c r="C43" s="217"/>
+      <c r="B43" s="179"/>
+      <c r="C43" s="179"/>
       <c r="D43" s="63">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4785,16 +4782,16 @@
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="184">
+      <c r="G43" s="215">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="185"/>
-      <c r="I43" s="182">
+      <c r="H43" s="216"/>
+      <c r="I43" s="212">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="183"/>
+      <c r="J43" s="213"/>
       <c r="K43" s="65">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4804,8 +4801,8 @@
       <c r="A44" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="151"/>
-      <c r="C44" s="151"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="171"/>
       <c r="D44" s="38" t="s">
         <v>22</v>
       </c>
@@ -4822,8 +4819,8 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
-      <c r="B45" s="150"/>
-      <c r="C45" s="150"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
       <c r="D45" s="38"/>
       <c r="F45" s="39"/>
       <c r="G45" s="40"/>
@@ -4832,15 +4829,15 @@
       <c r="J45" s="17"/>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="133" t="s">
+      <c r="A46" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
+      <c r="B46" s="155"/>
+      <c r="C46" s="155"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G46" s="39">
         <f>Page1!G44</f>
@@ -4849,11 +4846,11 @@
       <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="133" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="133"/>
-      <c r="C47" s="133"/>
+      <c r="A47" s="155" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="155"/>
+      <c r="C47" s="155"/>
       <c r="D47" s="38"/>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
@@ -4908,47 +4905,43 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H10"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G40:H40"/>
@@ -4965,43 +4958,47 @@
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H10"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
@@ -5062,35 +5059,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -5111,15 +5108,15 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="154"/>
-      <c r="C4" s="209">
+      <c r="B4" s="135"/>
+      <c r="C4" s="205">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="210"/>
+      <c r="D4" s="181"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -5137,22 +5134,22 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="201">
+      <c r="J4" s="198">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="202"/>
+      <c r="K4" s="199"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="160"/>
-      <c r="C5" s="163">
+      <c r="B5" s="143"/>
+      <c r="C5" s="146">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -5170,79 +5167,79 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="203">
+      <c r="J5" s="200">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="204"/>
+      <c r="K5" s="201"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="226" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="227"/>
-      <c r="C6" s="228"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="158"/>
+      <c r="A6" s="229" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="230"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="206"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="202"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="211" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="218" t="s">
+      <c r="A7" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="235"/>
-      <c r="F7" s="235"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="230" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="212"/>
-      <c r="J7" s="198"/>
-      <c r="K7" s="207"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="233" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="186"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="203"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="212"/>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="233" t="s">
+      <c r="A8" s="186"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="236" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="188" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="188" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="224" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="224" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="224" t="s">
+      <c r="G8" s="188" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="231"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="207"/>
+      <c r="H8" s="234"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="203"/>
     </row>
     <row r="9" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="212"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="232"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="207"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="235"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="195"/>
+      <c r="K9" s="203"/>
     </row>
     <row r="10" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="86">
@@ -5262,9 +5259,9 @@
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="207"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="195"/>
+      <c r="K10" s="203"/>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="89">
@@ -5284,9 +5281,9 @@
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="212"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="207"/>
+      <c r="I11" s="186"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="203"/>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="89">
@@ -5306,9 +5303,9 @@
       <c r="F12" s="26"/>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="212"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="207"/>
+      <c r="I12" s="186"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="203"/>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="89">
@@ -5328,9 +5325,9 @@
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="212"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="207"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="195"/>
+      <c r="K13" s="203"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="89">
@@ -5350,9 +5347,9 @@
       <c r="F14" s="26"/>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="212"/>
-      <c r="J14" s="198"/>
-      <c r="K14" s="207"/>
+      <c r="I14" s="186"/>
+      <c r="J14" s="195"/>
+      <c r="K14" s="203"/>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="89">
@@ -5372,9 +5369,9 @@
       <c r="F15" s="26"/>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="207"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="195"/>
+      <c r="K15" s="203"/>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="89">
@@ -5394,9 +5391,9 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="212"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="207"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="203"/>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="89">
@@ -5416,9 +5413,9 @@
       <c r="F17" s="26"/>
       <c r="G17" s="27"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="207"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="195"/>
+      <c r="K17" s="203"/>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="89">
@@ -5438,9 +5435,9 @@
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="212"/>
-      <c r="J18" s="198"/>
-      <c r="K18" s="207"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="195"/>
+      <c r="K18" s="203"/>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="89">
@@ -5460,9 +5457,9 @@
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="212"/>
-      <c r="J19" s="198"/>
-      <c r="K19" s="207"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="195"/>
+      <c r="K19" s="203"/>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="95">
@@ -5482,9 +5479,9 @@
       <c r="F20" s="26"/>
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="212"/>
-      <c r="J20" s="198"/>
-      <c r="K20" s="207"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="195"/>
+      <c r="K20" s="203"/>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="89">
@@ -5504,9 +5501,9 @@
       <c r="F21" s="26"/>
       <c r="G21" s="27"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="212"/>
-      <c r="J21" s="198"/>
-      <c r="K21" s="207"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="195"/>
+      <c r="K21" s="203"/>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="89">
@@ -5526,9 +5523,9 @@
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="212"/>
-      <c r="J22" s="198"/>
-      <c r="K22" s="207"/>
+      <c r="I22" s="186"/>
+      <c r="J22" s="195"/>
+      <c r="K22" s="203"/>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="89">
@@ -5548,9 +5545,9 @@
       <c r="F23" s="26"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="212"/>
-      <c r="J23" s="198"/>
-      <c r="K23" s="207"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="195"/>
+      <c r="K23" s="203"/>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="89">
@@ -5570,9 +5567,9 @@
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="212"/>
-      <c r="J24" s="198"/>
-      <c r="K24" s="207"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="195"/>
+      <c r="K24" s="203"/>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="89">
@@ -5592,9 +5589,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="212"/>
-      <c r="J25" s="198"/>
-      <c r="K25" s="207"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="195"/>
+      <c r="K25" s="203"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="89">
@@ -5614,9 +5611,9 @@
       <c r="F26" s="26"/>
       <c r="G26" s="27"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="212"/>
-      <c r="J26" s="198"/>
-      <c r="K26" s="207"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="195"/>
+      <c r="K26" s="203"/>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="89">
@@ -5636,9 +5633,9 @@
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="212"/>
-      <c r="J27" s="198"/>
-      <c r="K27" s="207"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="195"/>
+      <c r="K27" s="203"/>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="89">
@@ -5658,9 +5655,9 @@
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="212"/>
-      <c r="J28" s="198"/>
-      <c r="K28" s="207"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="195"/>
+      <c r="K28" s="203"/>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="89">
@@ -5680,9 +5677,9 @@
       <c r="F29" s="26"/>
       <c r="G29" s="27"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="212"/>
-      <c r="J29" s="198"/>
-      <c r="K29" s="207"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="195"/>
+      <c r="K29" s="203"/>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="95">
@@ -5702,9 +5699,9 @@
       <c r="F30" s="26"/>
       <c r="G30" s="27"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="212"/>
-      <c r="J30" s="198"/>
-      <c r="K30" s="207"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="195"/>
+      <c r="K30" s="203"/>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="89">
@@ -5724,9 +5721,9 @@
       <c r="F31" s="26"/>
       <c r="G31" s="27"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="212"/>
-      <c r="J31" s="198"/>
-      <c r="K31" s="207"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="195"/>
+      <c r="K31" s="203"/>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="89">
@@ -5746,9 +5743,9 @@
       <c r="F32" s="26"/>
       <c r="G32" s="27"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="212"/>
-      <c r="J32" s="198"/>
-      <c r="K32" s="207"/>
+      <c r="I32" s="186"/>
+      <c r="J32" s="195"/>
+      <c r="K32" s="203"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="89">
@@ -5768,9 +5765,9 @@
       <c r="F33" s="26"/>
       <c r="G33" s="27"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="212"/>
-      <c r="J33" s="198"/>
-      <c r="K33" s="207"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="195"/>
+      <c r="K33" s="203"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="89">
@@ -5790,9 +5787,9 @@
       <c r="F34" s="26"/>
       <c r="G34" s="27"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="212"/>
-      <c r="J34" s="198"/>
-      <c r="K34" s="207"/>
+      <c r="I34" s="186"/>
+      <c r="J34" s="195"/>
+      <c r="K34" s="203"/>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="89">
@@ -5812,9 +5809,9 @@
       <c r="F35" s="26"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="212"/>
-      <c r="J35" s="198"/>
-      <c r="K35" s="207"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="195"/>
+      <c r="K35" s="203"/>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="89">
@@ -5834,9 +5831,9 @@
       <c r="F36" s="26"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="212"/>
-      <c r="J36" s="198"/>
-      <c r="K36" s="207"/>
+      <c r="I36" s="186"/>
+      <c r="J36" s="195"/>
+      <c r="K36" s="203"/>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="89">
@@ -5856,9 +5853,9 @@
       <c r="F37" s="26"/>
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="212"/>
-      <c r="J37" s="198"/>
-      <c r="K37" s="207"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="195"/>
+      <c r="K37" s="203"/>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="89">
@@ -5878,9 +5875,9 @@
       <c r="F38" s="26"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="212"/>
-      <c r="J38" s="198"/>
-      <c r="K38" s="207"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="195"/>
+      <c r="K38" s="203"/>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="96">
@@ -5900,16 +5897,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="212"/>
-      <c r="J39" s="198"/>
-      <c r="K39" s="207"/>
+      <c r="I39" s="186"/>
+      <c r="J39" s="195"/>
+      <c r="K39" s="203"/>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="236" t="s">
+      <c r="A40" s="227" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="237"/>
-      <c r="C40" s="237"/>
+      <c r="B40" s="228"/>
+      <c r="C40" s="228"/>
       <c r="D40" s="29" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -5930,16 +5927,16 @@
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="198"/>
-      <c r="J40" s="198"/>
-      <c r="K40" s="207"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="195"/>
+      <c r="K40" s="203"/>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="221" t="s">
+      <c r="A41" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="222"/>
-      <c r="C41" s="222"/>
+      <c r="B41" s="185"/>
+      <c r="C41" s="185"/>
       <c r="D41" s="32">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -5960,16 +5957,16 @@
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="198"/>
-      <c r="J41" s="198"/>
-      <c r="K41" s="207"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="195"/>
+      <c r="K41" s="203"/>
     </row>
     <row r="42" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="216" t="s">
+      <c r="A42" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="217"/>
-      <c r="C42" s="217"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
       <c r="D42" s="35">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -5990,16 +5987,16 @@
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="200"/>
-      <c r="J42" s="200"/>
-      <c r="K42" s="208"/>
+      <c r="I42" s="197"/>
+      <c r="J42" s="197"/>
+      <c r="K42" s="204"/>
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="151"/>
-      <c r="C43" s="151"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="171"/>
       <c r="D43" s="38" t="s">
         <v>22</v>
       </c>
@@ -6016,8 +6013,8 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
-      <c r="B44" s="150"/>
-      <c r="C44" s="150"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170"/>
       <c r="D44" s="38"/>
       <c r="F44" s="39"/>
       <c r="G44" s="40"/>
@@ -6026,15 +6023,15 @@
       <c r="J44" s="17"/>
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="133" t="s">
+      <c r="A45" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
+      <c r="B45" s="155"/>
+      <c r="C45" s="155"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
       <c r="F45" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G45" s="39">
         <f>Page1!G44</f>
@@ -6043,11 +6040,11 @@
       <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="133" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
+      <c r="A46" s="155" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="155"/>
+      <c r="C46" s="155"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
@@ -6072,15 +6069,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A7:C9"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="A1:J1"/>
@@ -6097,6 +6085,15 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A7:C9"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="notBetween">
@@ -6135,7 +6132,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6148,15 +6145,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="304" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="244"/>
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="305"/>
+      <c r="E1" s="305"/>
+      <c r="F1" s="305"/>
+      <c r="G1" s="306"/>
     </row>
     <row r="2" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100"/>
@@ -6170,37 +6167,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="99" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="287" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="288"/>
-      <c r="C3" s="288"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="288"/>
-      <c r="F3" s="288"/>
-      <c r="G3" s="289"/>
+      <c r="A3" s="242" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="243"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="243"/>
+      <c r="G3" s="244"/>
     </row>
     <row r="4" spans="1:7" s="99" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="212" t="s">
+      <c r="A4" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="198"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="207"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="203"/>
     </row>
     <row r="5" spans="1:7" s="99" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="284" t="s">
+      <c r="A5" s="239" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="285"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="286"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="240"/>
+      <c r="F5" s="240"/>
+      <c r="G5" s="241"/>
     </row>
     <row r="6" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="103" t="s">
@@ -6212,12 +6209,13 @@
       <c r="C6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="245" t="s">
+      <c r="D6" s="269">
+        <f>Page1!H4</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="271"/>
+      <c r="F6" s="302" t="s">
         <v>49</v>
-      </c>
-      <c r="E6" s="246"/>
-      <c r="F6" s="238" t="s">
-        <v>50</v>
       </c>
       <c r="G6" s="247">
         <f>Page1!J4</f>
@@ -6226,37 +6224,37 @@
     </row>
     <row r="7" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="107"/>
       <c r="C7" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="245">
+        <v>51</v>
+      </c>
+      <c r="D7" s="269">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="246"/>
-      <c r="F7" s="238"/>
-      <c r="G7" s="248"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="302"/>
+      <c r="G7" s="307"/>
     </row>
     <row r="8" spans="1:7" s="99" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="106">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="238">
+        <v>53</v>
+      </c>
+      <c r="D8" s="302">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="238"/>
-      <c r="F8" s="239" t="s">
+      <c r="E8" s="302"/>
+      <c r="F8" s="250" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="247">
@@ -6266,76 +6264,76 @@
     </row>
     <row r="9" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="109" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="108">
         <f>Page1!G44</f>
         <v>461303600</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="250" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="252" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="294" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="295"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="292"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="303"/>
+      <c r="G9" s="248"/>
     </row>
     <row r="10" spans="1:7" s="99" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="110" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="111">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="241"/>
-      <c r="D10" s="296"/>
-      <c r="E10" s="297"/>
-      <c r="F10" s="241"/>
-      <c r="G10" s="293"/>
+      <c r="C10" s="251"/>
+      <c r="D10" s="254"/>
+      <c r="E10" s="255"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="249"/>
     </row>
     <row r="11" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="298" t="s">
+      <c r="A11" s="256" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="258" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="300" t="s">
+      <c r="C11" s="260" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="261"/>
+      <c r="E11" s="262"/>
+      <c r="F11" s="258" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="302" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="303"/>
-      <c r="E11" s="304"/>
-      <c r="F11" s="300" t="s">
+      <c r="G11" s="263" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="305" t="s">
+    </row>
+    <row r="12" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="257"/>
+      <c r="B12" s="259"/>
+      <c r="C12" s="112" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="299"/>
-      <c r="B12" s="301"/>
-      <c r="C12" s="112" t="s">
+      <c r="D12" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="E12" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="112" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="301"/>
-      <c r="G12" s="306"/>
+      <c r="F12" s="259"/>
+      <c r="G12" s="264"/>
     </row>
     <row r="13" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="114" t="s">
         <v>66</v>
-      </c>
-      <c r="B13" s="114" t="s">
-        <v>67</v>
       </c>
       <c r="C13" s="115">
         <v>17</v>
@@ -6351,15 +6349,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G13" s="82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="118" t="s">
         <v>69</v>
-      </c>
-      <c r="B14" s="118" t="s">
-        <v>70</v>
       </c>
       <c r="C14" s="119">
         <v>18</v>
@@ -6375,15 +6373,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G14" s="121" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="118" t="s">
         <v>72</v>
-      </c>
-      <c r="B15" s="118" t="s">
-        <v>73</v>
       </c>
       <c r="C15" s="119">
         <v>300</v>
@@ -6398,16 +6396,16 @@
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="249" t="s">
-        <v>74</v>
+      <c r="G15" s="298" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="117" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="119">
         <v>300</v>
@@ -6422,14 +6420,14 @@
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="231"/>
+      <c r="G16" s="234"/>
     </row>
     <row r="17" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="117" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="119">
         <v>900</v>
@@ -6444,14 +6442,14 @@
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="231"/>
+      <c r="G17" s="234"/>
     </row>
     <row r="18" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="119">
         <v>700</v>
@@ -6466,14 +6464,14 @@
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="231"/>
+      <c r="G18" s="234"/>
     </row>
     <row r="19" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="118" t="s">
         <v>78</v>
-      </c>
-      <c r="B19" s="118" t="s">
-        <v>79</v>
       </c>
       <c r="C19" s="119">
         <v>350</v>
@@ -6488,14 +6486,14 @@
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="231"/>
+      <c r="G19" s="234"/>
     </row>
     <row r="20" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="117" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="118" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="119">
         <v>400</v>
@@ -6510,11 +6508,11 @@
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="231"/>
+      <c r="G20" s="234"/>
     </row>
     <row r="21" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="117" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="118" t="s">
         <v>40</v>
@@ -6532,11 +6530,11 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="231"/>
+      <c r="G21" s="234"/>
     </row>
     <row r="22" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="118" t="s">
         <v>40</v>
@@ -6554,14 +6552,14 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="167"/>
+      <c r="G22" s="150"/>
     </row>
     <row r="23" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="117" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="118" t="s">
         <v>83</v>
-      </c>
-      <c r="B23" s="118" t="s">
-        <v>84</v>
       </c>
       <c r="C23" s="61">
         <v>360</v>
@@ -6577,15 +6575,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G23" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="117" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="118" t="s">
         <v>86</v>
-      </c>
-      <c r="B24" s="118" t="s">
-        <v>87</v>
       </c>
       <c r="C24" s="119" t="s">
         <v>40</v>
@@ -6603,15 +6601,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="121" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="117" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="118" t="s">
         <v>89</v>
-      </c>
-      <c r="B25" s="118" t="s">
-        <v>90</v>
       </c>
       <c r="C25" s="61">
         <v>6000</v>
@@ -6626,15 +6624,15 @@
         <v>6000</v>
       </c>
       <c r="G25" s="121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="123" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="83">
         <v>410</v>
@@ -6650,289 +6648,328 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G26" s="122" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="250" t="s">
+      <c r="A27" s="295" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="296"/>
+      <c r="C27" s="296"/>
+      <c r="D27" s="296"/>
+      <c r="E27" s="296"/>
+      <c r="F27" s="296"/>
+      <c r="G27" s="297"/>
+    </row>
+    <row r="28" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="251"/>
-      <c r="C27" s="251"/>
-      <c r="D27" s="251"/>
-      <c r="E27" s="251"/>
-      <c r="F27" s="251"/>
-      <c r="G27" s="252"/>
-    </row>
-    <row r="28" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="253" t="s">
+      <c r="B28" s="268"/>
+      <c r="C28" s="299" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="254"/>
-      <c r="C28" s="255" t="s">
+      <c r="D28" s="300"/>
+      <c r="E28" s="301"/>
+      <c r="F28" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="256"/>
-      <c r="E28" s="257"/>
-      <c r="F28" s="126" t="s">
+      <c r="G28" s="82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="272" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="271"/>
+      <c r="C29" s="289" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="290"/>
+      <c r="E29" s="291"/>
+      <c r="F29" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="82" t="s">
+    </row>
+    <row r="30" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="272" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="271"/>
+      <c r="C30" s="289" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="290"/>
+      <c r="E30" s="291"/>
+      <c r="F30" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="272" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="271"/>
+      <c r="C31" s="289" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="290"/>
+      <c r="E31" s="291"/>
+      <c r="F31" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="121" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="272" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="271"/>
+      <c r="C32" s="289" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="290"/>
+      <c r="E32" s="291"/>
+      <c r="F32" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="121" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="272" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="271"/>
+      <c r="C33" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="290"/>
+      <c r="E33" s="291"/>
+      <c r="F33" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="121" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="258" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="246"/>
-      <c r="C29" s="259" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="260"/>
-      <c r="E29" s="261"/>
-      <c r="F29" s="60" t="s">
+    <row r="34" spans="1:7" s="99" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="142" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="143"/>
+      <c r="C34" s="292" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="293"/>
+      <c r="E34" s="294"/>
+      <c r="F34" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="132" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="295" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="296"/>
+      <c r="C35" s="296"/>
+      <c r="D35" s="296"/>
+      <c r="E35" s="296"/>
+      <c r="F35" s="296"/>
+      <c r="G35" s="297"/>
+    </row>
+    <row r="36" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="134" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="135"/>
+      <c r="C36" s="287" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="288"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="267" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="268"/>
+      <c r="C37" s="269" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="270"/>
+      <c r="E37" s="271"/>
+      <c r="F37" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="121" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="258" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="246"/>
-      <c r="C30" s="259" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="260"/>
-      <c r="E30" s="261"/>
-      <c r="F30" s="60" t="s">
+    </row>
+    <row r="38" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="272" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="271"/>
+      <c r="C38" s="269" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="270"/>
+      <c r="E38" s="271"/>
+      <c r="F38" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="82" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="258" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="246"/>
-      <c r="C31" s="259" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="260"/>
-      <c r="E31" s="261"/>
-      <c r="F31" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" s="121" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="258" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="246"/>
-      <c r="C32" s="259" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="260"/>
-      <c r="E32" s="261"/>
-      <c r="F32" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32" s="121" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="258" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="246"/>
-      <c r="C33" s="259" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="260"/>
-      <c r="E33" s="261"/>
-      <c r="F33" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" s="121" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="99" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="159" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="160"/>
-      <c r="C34" s="264" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="265"/>
-      <c r="E34" s="266"/>
-      <c r="F34" s="127" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" s="132" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="250" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="251"/>
-      <c r="C35" s="251"/>
-      <c r="D35" s="251"/>
-      <c r="E35" s="251"/>
-      <c r="F35" s="251"/>
-      <c r="G35" s="252"/>
-    </row>
-    <row r="36" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="153" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="154"/>
-      <c r="C36" s="262" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="263"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="82" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="253" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="254"/>
-      <c r="C37" s="245" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="268"/>
-      <c r="E37" s="246"/>
-      <c r="F37" s="119" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" s="121" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="258" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="246"/>
-      <c r="C38" s="245" t="s">
+    </row>
+    <row r="39" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="142" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="268"/>
-      <c r="E38" s="246"/>
-      <c r="F38" s="119" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="121" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="159" t="s">
+      <c r="B39" s="143"/>
+      <c r="C39" s="245" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="160"/>
-      <c r="C39" s="290" t="s">
+      <c r="D39" s="246"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" s="122" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="273" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="291"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="122" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="269" t="s">
-        <v>119</v>
-      </c>
-      <c r="B40" s="270"/>
-      <c r="C40" s="271" t="s">
+      <c r="B40" s="274"/>
+      <c r="C40" s="275" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="276"/>
+      <c r="E40" s="277"/>
+      <c r="F40" s="275" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="272"/>
-      <c r="E40" s="273"/>
-      <c r="F40" s="271" t="s">
+      <c r="G40" s="277"/>
+    </row>
+    <row r="41" spans="1:7" s="99" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="278"/>
+      <c r="B41" s="279"/>
+      <c r="C41" s="186"/>
+      <c r="D41" s="195"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="282"/>
+      <c r="G41" s="283"/>
+    </row>
+    <row r="42" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="280"/>
+      <c r="B42" s="281"/>
+      <c r="C42" s="284" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="285"/>
+      <c r="E42" s="286"/>
+      <c r="F42" s="284" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="273"/>
-    </row>
-    <row r="41" spans="1:7" s="99" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="274"/>
-      <c r="B41" s="275"/>
-      <c r="C41" s="212"/>
-      <c r="D41" s="198"/>
-      <c r="E41" s="207"/>
-      <c r="F41" s="278"/>
-      <c r="G41" s="279"/>
-    </row>
-    <row r="42" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="276"/>
-      <c r="B42" s="277"/>
-      <c r="C42" s="280" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="281"/>
-      <c r="E42" s="282"/>
-      <c r="F42" s="280" t="s">
-        <v>139</v>
-      </c>
-      <c r="G42" s="282"/>
+      <c r="G42" s="286"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="128"/>
       <c r="B43" s="128"/>
       <c r="C43" s="128"/>
       <c r="D43" s="128"/>
-      <c r="E43" s="307"/>
-      <c r="F43" s="307"/>
-      <c r="G43" s="307"/>
+      <c r="E43" s="265"/>
+      <c r="F43" s="265"/>
+      <c r="G43" s="265"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B44" s="129"/>
       <c r="C44" s="131"/>
       <c r="D44" s="128"/>
-      <c r="E44" s="267"/>
-      <c r="F44" s="267"/>
-      <c r="G44" s="267"/>
+      <c r="E44" s="266"/>
+      <c r="F44" s="266"/>
+      <c r="G44" s="266"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="283" t="s">
+      <c r="A46" s="238" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="238"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="283"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="283" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="283"/>
+      <c r="B47" s="238"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G15:G22"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A4:G4"/>
@@ -6949,45 +6986,6 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.78740157480314965" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-18gsm-250P-ABQR.xlsx
+++ b/backend/templates/UC-18gsm-250P-ABQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31E0DFD-7725-4E2F-BBC0-22D55FE6D563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E4CC3E-540B-44B6-BF22-CB0F7EE51F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1443,7 +1443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2329,21 +2329,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2406,6 +2391,24 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6132,7 +6135,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6145,15 +6148,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="304" t="s">
+      <c r="A1" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
-      <c r="G1" s="306"/>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="301"/>
     </row>
     <row r="2" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100"/>
@@ -6214,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="271"/>
-      <c r="F6" s="302" t="s">
+      <c r="F6" s="297" t="s">
         <v>49</v>
       </c>
       <c r="G6" s="247">
@@ -6235,8 +6238,8 @@
         <v>0</v>
       </c>
       <c r="E7" s="271"/>
-      <c r="F7" s="302"/>
-      <c r="G7" s="307"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="302"/>
     </row>
     <row r="8" spans="1:7" s="99" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="103" t="s">
@@ -6249,11 +6252,11 @@
       <c r="C8" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="302">
+      <c r="D8" s="297">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="302"/>
+      <c r="E8" s="297"/>
       <c r="F8" s="250" t="s">
         <v>9</v>
       </c>
@@ -6277,7 +6280,7 @@
         <v>56</v>
       </c>
       <c r="E9" s="253"/>
-      <c r="F9" s="303"/>
+      <c r="F9" s="298"/>
       <c r="G9" s="248"/>
     </row>
     <row r="10" spans="1:7" s="99" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6396,7 +6399,7 @@
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="298" t="s">
+      <c r="G15" s="293" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6652,26 +6655,26 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="295" t="s">
+      <c r="A27" s="290" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="296"/>
-      <c r="C27" s="296"/>
-      <c r="D27" s="296"/>
-      <c r="E27" s="296"/>
-      <c r="F27" s="296"/>
-      <c r="G27" s="297"/>
+      <c r="B27" s="291"/>
+      <c r="C27" s="291"/>
+      <c r="D27" s="291"/>
+      <c r="E27" s="291"/>
+      <c r="F27" s="291"/>
+      <c r="G27" s="292"/>
     </row>
     <row r="28" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="267" t="s">
         <v>93</v>
       </c>
       <c r="B28" s="268"/>
-      <c r="C28" s="299" t="s">
+      <c r="C28" s="294" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="300"/>
-      <c r="E28" s="301"/>
+      <c r="D28" s="295"/>
+      <c r="E28" s="296"/>
       <c r="F28" s="126" t="s">
         <v>95</v>
       </c>
@@ -6684,11 +6687,11 @@
         <v>97</v>
       </c>
       <c r="B29" s="271"/>
-      <c r="C29" s="289" t="s">
+      <c r="C29" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="290"/>
-      <c r="E29" s="291"/>
+      <c r="D29" s="285"/>
+      <c r="E29" s="286"/>
       <c r="F29" s="60" t="s">
         <v>95</v>
       </c>
@@ -6701,11 +6704,11 @@
         <v>99</v>
       </c>
       <c r="B30" s="271"/>
-      <c r="C30" s="289" t="s">
+      <c r="C30" s="284" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="290"/>
-      <c r="E30" s="291"/>
+      <c r="D30" s="285"/>
+      <c r="E30" s="286"/>
       <c r="F30" s="60" t="s">
         <v>95</v>
       </c>
@@ -6718,11 +6721,11 @@
         <v>101</v>
       </c>
       <c r="B31" s="271"/>
-      <c r="C31" s="289" t="s">
+      <c r="C31" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="290"/>
-      <c r="E31" s="291"/>
+      <c r="D31" s="285"/>
+      <c r="E31" s="286"/>
       <c r="F31" s="60" t="s">
         <v>95</v>
       </c>
@@ -6735,11 +6738,11 @@
         <v>104</v>
       </c>
       <c r="B32" s="271"/>
-      <c r="C32" s="289" t="s">
+      <c r="C32" s="284" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="290"/>
-      <c r="E32" s="291"/>
+      <c r="D32" s="285"/>
+      <c r="E32" s="286"/>
       <c r="F32" s="60" t="s">
         <v>95</v>
       </c>
@@ -6752,11 +6755,11 @@
         <v>106</v>
       </c>
       <c r="B33" s="271"/>
-      <c r="C33" s="289" t="s">
+      <c r="C33" s="284" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="290"/>
-      <c r="E33" s="291"/>
+      <c r="D33" s="285"/>
+      <c r="E33" s="286"/>
       <c r="F33" s="60" t="s">
         <v>95</v>
       </c>
@@ -6769,11 +6772,11 @@
         <v>108</v>
       </c>
       <c r="B34" s="143"/>
-      <c r="C34" s="292" t="s">
+      <c r="C34" s="287" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="293"/>
-      <c r="E34" s="294"/>
+      <c r="D34" s="288"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="127" t="s">
         <v>95</v>
       </c>
@@ -6782,25 +6785,25 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="295" t="s">
+      <c r="A35" s="290" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="296"/>
-      <c r="C35" s="296"/>
-      <c r="D35" s="296"/>
-      <c r="E35" s="296"/>
-      <c r="F35" s="296"/>
-      <c r="G35" s="297"/>
+      <c r="B35" s="291"/>
+      <c r="C35" s="291"/>
+      <c r="D35" s="291"/>
+      <c r="E35" s="291"/>
+      <c r="F35" s="291"/>
+      <c r="G35" s="292"/>
     </row>
     <row r="36" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="134" t="s">
         <v>111</v>
       </c>
       <c r="B36" s="135"/>
-      <c r="C36" s="287" t="s">
+      <c r="C36" s="282" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="288"/>
+      <c r="D36" s="283"/>
       <c r="E36" s="135"/>
       <c r="F36" s="10" t="s">
         <v>95</v>
@@ -6875,27 +6878,27 @@
       </c>
       <c r="G40" s="277"/>
     </row>
-    <row r="41" spans="1:7" s="99" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="99" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="278"/>
       <c r="B41" s="279"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="195"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="282"/>
-      <c r="G41" s="283"/>
-    </row>
-    <row r="42" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="303"/>
+      <c r="D41" s="304"/>
+      <c r="E41" s="305"/>
+      <c r="F41" s="303"/>
+      <c r="G41" s="305"/>
+    </row>
+    <row r="42" spans="1:7" s="99" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="280"/>
       <c r="B42" s="281"/>
-      <c r="C42" s="284" t="s">
+      <c r="C42" s="306" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="285"/>
-      <c r="E42" s="286"/>
-      <c r="F42" s="284" t="s">
+      <c r="D42" s="307"/>
+      <c r="E42" s="308"/>
+      <c r="F42" s="306" t="s">
         <v>138</v>
       </c>
-      <c r="G42" s="286"/>
+      <c r="G42" s="308"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="128"/>

--- a/backend/templates/UC-18gsm-250P-ABQR.xlsx
+++ b/backend/templates/UC-18gsm-250P-ABQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E4CC3E-540B-44B6-BF22-CB0F7EE51F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A8DCE6-2339-4B2F-A16C-A4C05C36191F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,7 +623,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1426,24 +1426,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="304">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1734,21 +1721,12 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1762,9 +1740,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="58" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1868,6 +1843,63 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1883,12 +1915,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1940,55 +1966,135 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1997,178 +2103,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2176,25 +2133,160 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2224,21 +2316,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2281,133 +2364,22 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2969,7 +2941,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2983,35 +2955,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -3032,12 +3004,12 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:13" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="145"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3049,19 +3021,19 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="151"/>
-      <c r="K4" s="152"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="165"/>
       <c r="M4" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="143"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="147"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3073,64 +3045,64 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="153"/>
-      <c r="K5" s="154"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="167"/>
     </row>
     <row r="6" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="156" t="s">
+      <c r="A6" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" s="158"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="140"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="149"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="162"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138" t="s">
+      <c r="A7" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="138" t="s">
+      <c r="E7" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="138" t="s">
+      <c r="F7" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="136" t="s">
+      <c r="G7" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="136" t="s">
+      <c r="H7" s="151" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="150"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="163"/>
     </row>
     <row r="8" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="160"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139" t="s">
+      <c r="A8" s="135"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="139"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3532,11 +3504,11 @@
       <c r="K38" s="72"/>
     </row>
     <row r="39" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="167" t="s">
+      <c r="A39" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="168"/>
-      <c r="C39" s="169"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="145"/>
       <c r="D39" s="30" t="e">
         <f t="shared" ref="D39:K39" si="0">AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3571,11 +3543,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="164" t="s">
+      <c r="A40" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="165"/>
-      <c r="C40" s="166"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="142"/>
       <c r="D40" s="33">
         <f t="shared" ref="D40:K40" si="1">MIN(D9:D38)</f>
         <v>0</v>
@@ -3610,11 +3582,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="161" t="s">
+      <c r="A41" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="162"/>
-      <c r="C41" s="163"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="139"/>
       <c r="D41" s="79">
         <f t="shared" ref="D41:K41" si="2">MAX(D9:D38)</f>
         <v>0</v>
@@ -3655,8 +3627,8 @@
       <c r="A42" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="171"/>
-      <c r="C42" s="171"/>
+      <c r="B42" s="147"/>
+      <c r="C42" s="147"/>
       <c r="D42" s="38" t="s">
         <v>22</v>
       </c>
@@ -3673,8 +3645,8 @@
     </row>
     <row r="43" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="146"/>
       <c r="D43" s="38"/>
       <c r="F43" s="39"/>
       <c r="G43" s="40"/>
@@ -3683,11 +3655,11 @@
       <c r="J43" s="17"/>
     </row>
     <row r="44" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="155" t="s">
+      <c r="A44" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="155"/>
-      <c r="C44" s="155"/>
+      <c r="B44" s="129"/>
+      <c r="C44" s="129"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
       <c r="F44" s="40" t="s">
@@ -3699,11 +3671,11 @@
       <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="155" t="s">
+      <c r="A45" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="155"/>
-      <c r="C45" s="155"/>
+      <c r="B45" s="129"/>
+      <c r="C45" s="129"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
@@ -3732,16 +3704,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A4:B4"/>
@@ -3757,6 +3719,16 @@
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D41">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="notBetween">
@@ -3817,7 +3789,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:J22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3828,35 +3800,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -3877,10 +3849,10 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="135">
+      <c r="B4" s="150">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
@@ -3888,7 +3860,7 @@
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="181"/>
+      <c r="D4" s="206"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3906,25 +3878,25 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="198">
+      <c r="J4" s="197">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="199"/>
+      <c r="K4" s="198"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="143">
+      <c r="B5" s="156">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="146">
+      <c r="C5" s="159">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="147"/>
+      <c r="D5" s="160"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3942,80 +3914,80 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="200">
+      <c r="J5" s="199">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="201"/>
+      <c r="K5" s="200"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="209" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="173"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="192"/>
+      <c r="B6" s="210"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="189"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="180" t="s">
+      <c r="A7" s="207" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="192"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="176"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="193" t="s">
+      <c r="E7" s="192"/>
+      <c r="F7" s="206"/>
+      <c r="G7" s="190" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="176"/>
-      <c r="I7" s="193" t="s">
+      <c r="H7" s="192"/>
+      <c r="I7" s="190" t="s">
         <v>132</v>
       </c>
-      <c r="J7" s="177"/>
+      <c r="J7" s="191"/>
       <c r="K7" s="202" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="186"/>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="186" t="s">
+      <c r="A8" s="208"/>
+      <c r="B8" s="298"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="298" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="188" t="s">
+      <c r="E8" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="189" t="s">
+      <c r="F8" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="194"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="194" t="s">
+      <c r="G8" s="193"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="193" t="s">
         <v>131</v>
       </c>
-      <c r="J8" s="189"/>
+      <c r="J8" s="201"/>
       <c r="K8" s="203"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="186"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="195"/>
+      <c r="A9" s="208"/>
+      <c r="B9" s="298"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="298"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="194"/>
       <c r="I9" s="47" t="s">
         <v>127</v>
       </c>
@@ -4025,14 +3997,14 @@
       <c r="K9" s="203"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="186"/>
-      <c r="B10" s="195"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
+      <c r="A10" s="208"/>
+      <c r="B10" s="298"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="196"/>
       <c r="I10" s="49" t="s">
         <v>128</v>
       </c>
@@ -4050,663 +4022,663 @@
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C11" s="88">
+      <c r="C11" s="299">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
       <c r="F11" s="52"/>
-      <c r="G11" s="221"/>
-      <c r="H11" s="221"/>
-      <c r="I11" s="206"/>
-      <c r="J11" s="207"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="185"/>
       <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89">
+      <c r="A12" s="88">
         <f>Page1!A10</f>
         <v>0</v>
       </c>
-      <c r="B12" s="90">
+      <c r="B12" s="89">
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="91">
+      <c r="C12" s="300">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
       <c r="D12" s="54"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
-      <c r="G12" s="214"/>
-      <c r="H12" s="214"/>
-      <c r="I12" s="208"/>
-      <c r="J12" s="209"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="171"/>
       <c r="K12" s="56"/>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89">
+      <c r="A13" s="88">
         <f>Page1!A11</f>
         <v>0</v>
       </c>
-      <c r="B13" s="90">
+      <c r="B13" s="89">
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C13" s="92">
+      <c r="C13" s="301">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
       <c r="D13" s="54"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="209"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="171"/>
       <c r="K13" s="56"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89">
+      <c r="A14" s="88">
         <f>Page1!A12</f>
         <v>0</v>
       </c>
-      <c r="B14" s="93">
+      <c r="B14" s="90">
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="92">
+      <c r="C14" s="301">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="214"/>
-      <c r="H14" s="214"/>
-      <c r="I14" s="208"/>
-      <c r="J14" s="209"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="171"/>
       <c r="K14" s="56"/>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89">
+      <c r="A15" s="88">
         <f>Page1!A13</f>
         <v>0</v>
       </c>
-      <c r="B15" s="90">
+      <c r="B15" s="89">
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C15" s="91">
+      <c r="C15" s="300">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
-      <c r="G15" s="214"/>
-      <c r="H15" s="214"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="209"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="171"/>
       <c r="K15" s="56"/>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89">
+      <c r="A16" s="88">
         <f>Page1!A14</f>
         <v>0</v>
       </c>
-      <c r="B16" s="90">
+      <c r="B16" s="89">
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C16" s="91">
+      <c r="C16" s="300">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
       <c r="D16" s="51"/>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="209"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="171"/>
       <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89">
+      <c r="A17" s="88">
         <f>Page1!A15</f>
         <v>0</v>
       </c>
-      <c r="B17" s="90">
+      <c r="B17" s="89">
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C17" s="91">
+      <c r="C17" s="300">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
       <c r="D17" s="54"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="214"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="209"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="171"/>
       <c r="K17" s="56"/>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89">
+      <c r="A18" s="88">
         <f>Page1!A16</f>
         <v>0</v>
       </c>
-      <c r="B18" s="90">
+      <c r="B18" s="89">
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C18" s="91">
+      <c r="C18" s="300">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
       <c r="D18" s="54"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="208"/>
-      <c r="J18" s="209"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="171"/>
       <c r="K18" s="56"/>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89">
+      <c r="A19" s="88">
         <f>Page1!A17</f>
         <v>0</v>
       </c>
-      <c r="B19" s="94">
+      <c r="B19" s="91">
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C19" s="91">
+      <c r="C19" s="300">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
       <c r="D19" s="54"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="214"/>
-      <c r="I19" s="208"/>
-      <c r="J19" s="209"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="171"/>
       <c r="K19" s="56"/>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89">
+      <c r="A20" s="88">
         <f>Page1!A18</f>
         <v>0</v>
       </c>
-      <c r="B20" s="90">
+      <c r="B20" s="89">
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C20" s="91">
+      <c r="C20" s="300">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
       <c r="D20" s="54"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
-      <c r="G20" s="219"/>
-      <c r="H20" s="220"/>
-      <c r="I20" s="208"/>
-      <c r="J20" s="209"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="171"/>
       <c r="K20" s="56"/>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95">
+      <c r="A21" s="92">
         <f>Page1!A19</f>
         <v>0</v>
       </c>
-      <c r="B21" s="94">
+      <c r="B21" s="91">
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="92">
+      <c r="C21" s="301">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
       <c r="D21" s="54"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="220"/>
-      <c r="I21" s="208"/>
-      <c r="J21" s="209"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="171"/>
       <c r="K21" s="56"/>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="89">
+      <c r="A22" s="88">
         <f>Page1!A20</f>
         <v>0</v>
       </c>
-      <c r="B22" s="90">
+      <c r="B22" s="89">
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C22" s="91">
+      <c r="C22" s="300">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
       <c r="D22" s="54"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
-      <c r="G22" s="219"/>
-      <c r="H22" s="220"/>
-      <c r="I22" s="208"/>
-      <c r="J22" s="209"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="171"/>
       <c r="K22" s="56"/>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89">
+      <c r="A23" s="88">
         <f>Page1!A21</f>
         <v>0</v>
       </c>
-      <c r="B23" s="90">
+      <c r="B23" s="89">
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C23" s="92">
+      <c r="C23" s="301">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
       <c r="D23" s="54"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="220"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="209"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="171"/>
       <c r="K23" s="56"/>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="89">
+      <c r="A24" s="88">
         <f>Page1!A22</f>
         <v>0</v>
       </c>
-      <c r="B24" s="93">
+      <c r="B24" s="90">
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C24" s="92">
+      <c r="C24" s="301">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
       <c r="D24" s="54"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
-      <c r="G24" s="219"/>
-      <c r="H24" s="220"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="209"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="171"/>
       <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89">
+      <c r="A25" s="88">
         <f>Page1!A23</f>
         <v>0</v>
       </c>
-      <c r="B25" s="90">
+      <c r="B25" s="89">
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C25" s="91">
+      <c r="C25" s="300">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
       <c r="D25" s="54"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="220"/>
-      <c r="I25" s="208"/>
-      <c r="J25" s="209"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="171"/>
       <c r="K25" s="56"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="89">
+      <c r="A26" s="88">
         <f>Page1!A24</f>
         <v>0</v>
       </c>
-      <c r="B26" s="90">
+      <c r="B26" s="89">
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C26" s="91">
+      <c r="C26" s="300">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
       <c r="D26" s="54"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
-      <c r="G26" s="219"/>
-      <c r="H26" s="220"/>
-      <c r="I26" s="208"/>
-      <c r="J26" s="209"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="171"/>
       <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="89">
+      <c r="A27" s="88">
         <f>Page1!A25</f>
         <v>0</v>
       </c>
-      <c r="B27" s="90">
+      <c r="B27" s="89">
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C27" s="91">
+      <c r="C27" s="300">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
       <c r="D27" s="54"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
-      <c r="G27" s="219"/>
-      <c r="H27" s="220"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="209"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="171"/>
       <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="89">
+      <c r="A28" s="88">
         <f>Page1!A26</f>
         <v>0</v>
       </c>
-      <c r="B28" s="90">
+      <c r="B28" s="89">
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C28" s="91">
+      <c r="C28" s="300">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
       <c r="D28" s="54"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
-      <c r="G28" s="219"/>
-      <c r="H28" s="220"/>
-      <c r="I28" s="208"/>
-      <c r="J28" s="209"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="171"/>
       <c r="K28" s="56"/>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="89">
+      <c r="A29" s="88">
         <f>Page1!A27</f>
         <v>0</v>
       </c>
-      <c r="B29" s="94">
+      <c r="B29" s="91">
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C29" s="91">
+      <c r="C29" s="300">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
       <c r="D29" s="54"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="220"/>
-      <c r="I29" s="208"/>
-      <c r="J29" s="209"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="171"/>
       <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="89">
+      <c r="A30" s="88">
         <f>Page1!A28</f>
         <v>0</v>
       </c>
-      <c r="B30" s="90">
+      <c r="B30" s="89">
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C30" s="91">
+      <c r="C30" s="300">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
       <c r="D30" s="54"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
-      <c r="G30" s="219"/>
-      <c r="H30" s="220"/>
-      <c r="I30" s="208"/>
-      <c r="J30" s="209"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="171"/>
       <c r="K30" s="56"/>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="95">
+      <c r="A31" s="92">
         <f>Page1!A29</f>
         <v>0</v>
       </c>
-      <c r="B31" s="94">
+      <c r="B31" s="91">
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C31" s="92">
+      <c r="C31" s="301">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
       <c r="D31" s="54"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="219"/>
-      <c r="H31" s="220"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="209"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="171"/>
       <c r="K31" s="56"/>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="89">
+      <c r="A32" s="88">
         <f>Page1!A30</f>
         <v>0</v>
       </c>
-      <c r="B32" s="90">
+      <c r="B32" s="89">
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C32" s="91">
+      <c r="C32" s="300">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
       <c r="D32" s="54"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
-      <c r="G32" s="219"/>
-      <c r="H32" s="220"/>
-      <c r="I32" s="208"/>
-      <c r="J32" s="209"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="171"/>
       <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="89">
+      <c r="A33" s="88">
         <f>Page1!A31</f>
         <v>0</v>
       </c>
-      <c r="B33" s="90">
+      <c r="B33" s="89">
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C33" s="92">
+      <c r="C33" s="301">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
       <c r="D33" s="54"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="219"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="208"/>
-      <c r="J33" s="209"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="171"/>
       <c r="K33" s="56"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="89">
+      <c r="A34" s="88">
         <f>Page1!A32</f>
         <v>0</v>
       </c>
-      <c r="B34" s="93">
+      <c r="B34" s="90">
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C34" s="92">
+      <c r="C34" s="301">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
       <c r="D34" s="54"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55"/>
-      <c r="G34" s="219"/>
-      <c r="H34" s="220"/>
-      <c r="I34" s="208"/>
-      <c r="J34" s="209"/>
+      <c r="G34" s="168"/>
+      <c r="H34" s="169"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="171"/>
       <c r="K34" s="56"/>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89">
+      <c r="A35" s="88">
         <f>Page1!A33</f>
         <v>0</v>
       </c>
-      <c r="B35" s="90">
+      <c r="B35" s="89">
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C35" s="91">
+      <c r="C35" s="300">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
       <c r="D35" s="54"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55"/>
-      <c r="G35" s="219"/>
-      <c r="H35" s="220"/>
-      <c r="I35" s="208"/>
-      <c r="J35" s="209"/>
+      <c r="G35" s="168"/>
+      <c r="H35" s="169"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="171"/>
       <c r="K35" s="56"/>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89">
+      <c r="A36" s="88">
         <f>Page1!A34</f>
         <v>0</v>
       </c>
-      <c r="B36" s="90">
+      <c r="B36" s="89">
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C36" s="91">
+      <c r="C36" s="300">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
       <c r="D36" s="54"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55"/>
-      <c r="G36" s="219"/>
-      <c r="H36" s="220"/>
-      <c r="I36" s="208"/>
-      <c r="J36" s="209"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="169"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="171"/>
       <c r="K36" s="56"/>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="89">
+      <c r="A37" s="88">
         <f>Page1!A35</f>
         <v>0</v>
       </c>
-      <c r="B37" s="90">
+      <c r="B37" s="89">
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C37" s="91">
+      <c r="C37" s="300">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
       <c r="D37" s="54"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55"/>
-      <c r="G37" s="219"/>
-      <c r="H37" s="220"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="209"/>
+      <c r="G37" s="168"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="171"/>
       <c r="K37" s="56"/>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="89">
+      <c r="A38" s="88">
         <f>Page1!A36</f>
         <v>0</v>
       </c>
-      <c r="B38" s="90">
+      <c r="B38" s="89">
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C38" s="91">
+      <c r="C38" s="300">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
       <c r="D38" s="54"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
-      <c r="G38" s="219"/>
-      <c r="H38" s="220"/>
-      <c r="I38" s="208"/>
-      <c r="J38" s="209"/>
+      <c r="G38" s="168"/>
+      <c r="H38" s="169"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="171"/>
       <c r="K38" s="56"/>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="89">
+      <c r="A39" s="88">
         <f>Page1!A37</f>
         <v>0</v>
       </c>
-      <c r="B39" s="90">
+      <c r="B39" s="89">
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C39" s="91">
+      <c r="C39" s="300">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
       <c r="D39" s="54"/>
       <c r="E39" s="55"/>
       <c r="F39" s="55"/>
-      <c r="G39" s="219"/>
-      <c r="H39" s="220"/>
-      <c r="I39" s="208"/>
-      <c r="J39" s="209"/>
+      <c r="G39" s="168"/>
+      <c r="H39" s="169"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="171"/>
       <c r="K39" s="56"/>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="96">
+      <c r="A40" s="93">
         <f>Page1!A38</f>
         <v>0</v>
       </c>
-      <c r="B40" s="97">
+      <c r="B40" s="94">
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C40" s="98">
+      <c r="C40" s="302">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
       <c r="D40" s="54"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
-      <c r="G40" s="214"/>
-      <c r="H40" s="214"/>
-      <c r="I40" s="208"/>
-      <c r="J40" s="209"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="171"/>
       <c r="K40" s="56"/>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="182" t="s">
+      <c r="A41" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="183"/>
-      <c r="C41" s="183"/>
+      <c r="B41" s="214"/>
+      <c r="C41" s="214"/>
       <c r="D41" s="57" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4719,27 +4691,27 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="224" t="e">
+      <c r="G41" s="176" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="225"/>
-      <c r="I41" s="222" t="e">
+      <c r="H41" s="177"/>
+      <c r="I41" s="174" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="223"/>
+      <c r="J41" s="175"/>
       <c r="K41" s="59" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="184" t="s">
+      <c r="A42" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="185"/>
-      <c r="C42" s="185"/>
+      <c r="B42" s="216"/>
+      <c r="C42" s="216"/>
       <c r="D42" s="60">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4752,27 +4724,27 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="217">
+      <c r="G42" s="182">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="218"/>
-      <c r="I42" s="210">
+      <c r="H42" s="183"/>
+      <c r="I42" s="186">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="211"/>
+      <c r="J42" s="187"/>
       <c r="K42" s="62">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="178" t="s">
+      <c r="A43" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="179"/>
-      <c r="C43" s="179"/>
+      <c r="B43" s="212"/>
+      <c r="C43" s="212"/>
       <c r="D43" s="63">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4785,16 +4757,16 @@
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="215">
+      <c r="G43" s="180">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="216"/>
-      <c r="I43" s="212">
+      <c r="H43" s="181"/>
+      <c r="I43" s="178">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="213"/>
+      <c r="J43" s="179"/>
       <c r="K43" s="65">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4804,8 +4776,8 @@
       <c r="A44" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="171"/>
-      <c r="C44" s="171"/>
+      <c r="B44" s="147"/>
+      <c r="C44" s="147"/>
       <c r="D44" s="38" t="s">
         <v>22</v>
       </c>
@@ -4822,8 +4794,8 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
+      <c r="B45" s="146"/>
+      <c r="C45" s="146"/>
       <c r="D45" s="38"/>
       <c r="F45" s="39"/>
       <c r="G45" s="40"/>
@@ -4832,11 +4804,11 @@
       <c r="J45" s="17"/>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="155" t="s">
+      <c r="A46" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="155"/>
-      <c r="C46" s="155"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="129"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="40" t="s">
@@ -4849,11 +4821,11 @@
       <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="155" t="s">
+      <c r="A47" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="155"/>
-      <c r="C47" s="155"/>
+      <c r="B47" s="129"/>
+      <c r="C47" s="129"/>
       <c r="D47" s="38"/>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
@@ -4908,6 +4880,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H10"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="G39:H39"/>
@@ -4924,84 +4974,6 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H10"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
@@ -5051,7 +5023,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5062,35 +5034,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -5111,15 +5083,15 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="135"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="205">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="181"/>
+      <c r="D4" s="206"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -5137,22 +5109,22 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="198">
+      <c r="J4" s="197">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="199"/>
+      <c r="K4" s="198"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="143"/>
-      <c r="C5" s="146">
+      <c r="B5" s="156"/>
+      <c r="C5" s="159">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="147"/>
+      <c r="D5" s="160"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -5170,78 +5142,78 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="200">
+      <c r="J5" s="199">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="201"/>
+      <c r="K5" s="200"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="229" t="s">
+      <c r="A6" s="219" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="230"/>
-      <c r="C6" s="231"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="141"/>
+      <c r="B6" s="220"/>
+      <c r="C6" s="220"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="154"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="176"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="192"/>
       <c r="K6" s="202"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="180" t="s">
+      <c r="A7" s="207" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="192"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="224" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="226"/>
-      <c r="F7" s="226"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="233" t="s">
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="206"/>
+      <c r="H7" s="221" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="186"/>
-      <c r="J7" s="195"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="194"/>
       <c r="K7" s="203"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="186"/>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="236" t="s">
+      <c r="A8" s="208"/>
+      <c r="B8" s="298"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="303" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="188" t="s">
+      <c r="E8" s="217" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="188" t="s">
+      <c r="F8" s="217" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="188" t="s">
+      <c r="G8" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="234"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="195"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="194"/>
       <c r="K8" s="203"/>
     </row>
     <row r="9" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="186"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="235"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="195"/>
+      <c r="A9" s="208"/>
+      <c r="B9" s="298"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="223"/>
+      <c r="I9" s="208"/>
+      <c r="J9" s="194"/>
       <c r="K9" s="203"/>
     </row>
     <row r="10" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5253,7 +5225,7 @@
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="299">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
@@ -5262,20 +5234,20 @@
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="195"/>
+      <c r="I10" s="208"/>
+      <c r="J10" s="194"/>
       <c r="K10" s="203"/>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89">
+      <c r="A11" s="88">
         <f>Page1!A10</f>
         <v>0</v>
       </c>
-      <c r="B11" s="90">
+      <c r="B11" s="89">
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="91">
+      <c r="C11" s="300">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
@@ -5284,20 +5256,20 @@
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="195"/>
+      <c r="I11" s="208"/>
+      <c r="J11" s="194"/>
       <c r="K11" s="203"/>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89">
+      <c r="A12" s="88">
         <f>Page1!A11</f>
         <v>0</v>
       </c>
-      <c r="B12" s="90">
+      <c r="B12" s="89">
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C12" s="92">
+      <c r="C12" s="301">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
@@ -5306,20 +5278,20 @@
       <c r="F12" s="26"/>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="195"/>
+      <c r="I12" s="208"/>
+      <c r="J12" s="194"/>
       <c r="K12" s="203"/>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89">
+      <c r="A13" s="88">
         <f>Page1!A12</f>
         <v>0</v>
       </c>
-      <c r="B13" s="93">
+      <c r="B13" s="90">
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="92">
+      <c r="C13" s="301">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
@@ -5328,20 +5300,20 @@
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="195"/>
+      <c r="I13" s="208"/>
+      <c r="J13" s="194"/>
       <c r="K13" s="203"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89">
+      <c r="A14" s="88">
         <f>Page1!A13</f>
         <v>0</v>
       </c>
-      <c r="B14" s="90">
+      <c r="B14" s="89">
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C14" s="91">
+      <c r="C14" s="300">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
@@ -5350,20 +5322,20 @@
       <c r="F14" s="26"/>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="195"/>
+      <c r="I14" s="208"/>
+      <c r="J14" s="194"/>
       <c r="K14" s="203"/>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89">
+      <c r="A15" s="88">
         <f>Page1!A14</f>
         <v>0</v>
       </c>
-      <c r="B15" s="90">
+      <c r="B15" s="89">
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="91">
+      <c r="C15" s="300">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
@@ -5372,20 +5344,20 @@
       <c r="F15" s="26"/>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="195"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="194"/>
       <c r="K15" s="203"/>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89">
+      <c r="A16" s="88">
         <f>Page1!A15</f>
         <v>0</v>
       </c>
-      <c r="B16" s="90">
+      <c r="B16" s="89">
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="91">
+      <c r="C16" s="300">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
@@ -5394,20 +5366,20 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="195"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="194"/>
       <c r="K16" s="203"/>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89">
+      <c r="A17" s="88">
         <f>Page1!A16</f>
         <v>0</v>
       </c>
-      <c r="B17" s="90">
+      <c r="B17" s="89">
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C17" s="91">
+      <c r="C17" s="300">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
@@ -5416,20 +5388,20 @@
       <c r="F17" s="26"/>
       <c r="G17" s="27"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="195"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="194"/>
       <c r="K17" s="203"/>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89">
+      <c r="A18" s="88">
         <f>Page1!A17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="94">
+      <c r="B18" s="91">
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="91">
+      <c r="C18" s="300">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
@@ -5438,20 +5410,20 @@
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="195"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="194"/>
       <c r="K18" s="203"/>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89">
+      <c r="A19" s="88">
         <f>Page1!A18</f>
         <v>0</v>
       </c>
-      <c r="B19" s="90">
+      <c r="B19" s="89">
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C19" s="91">
+      <c r="C19" s="300">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
@@ -5460,20 +5432,20 @@
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="195"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="194"/>
       <c r="K19" s="203"/>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="95">
+      <c r="A20" s="92">
         <f>Page1!A19</f>
         <v>0</v>
       </c>
-      <c r="B20" s="94">
+      <c r="B20" s="91">
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="92">
+      <c r="C20" s="301">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
@@ -5482,20 +5454,20 @@
       <c r="F20" s="26"/>
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="195"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="194"/>
       <c r="K20" s="203"/>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89">
+      <c r="A21" s="88">
         <f>Page1!A20</f>
         <v>0</v>
       </c>
-      <c r="B21" s="90">
+      <c r="B21" s="89">
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C21" s="91">
+      <c r="C21" s="300">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
@@ -5504,20 +5476,20 @@
       <c r="F21" s="26"/>
       <c r="G21" s="27"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="195"/>
+      <c r="I21" s="208"/>
+      <c r="J21" s="194"/>
       <c r="K21" s="203"/>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="89">
+      <c r="A22" s="88">
         <f>Page1!A21</f>
         <v>0</v>
       </c>
-      <c r="B22" s="90">
+      <c r="B22" s="89">
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C22" s="92">
+      <c r="C22" s="301">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
@@ -5526,20 +5498,20 @@
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="195"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="194"/>
       <c r="K22" s="203"/>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89">
+      <c r="A23" s="88">
         <f>Page1!A22</f>
         <v>0</v>
       </c>
-      <c r="B23" s="93">
+      <c r="B23" s="90">
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C23" s="92">
+      <c r="C23" s="301">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
@@ -5548,20 +5520,20 @@
       <c r="F23" s="26"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="195"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="194"/>
       <c r="K23" s="203"/>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="89">
+      <c r="A24" s="88">
         <f>Page1!A23</f>
         <v>0</v>
       </c>
-      <c r="B24" s="90">
+      <c r="B24" s="89">
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="91">
+      <c r="C24" s="300">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
@@ -5570,20 +5542,20 @@
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="195"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="194"/>
       <c r="K24" s="203"/>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89">
+      <c r="A25" s="88">
         <f>Page1!A24</f>
         <v>0</v>
       </c>
-      <c r="B25" s="90">
+      <c r="B25" s="89">
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C25" s="91">
+      <c r="C25" s="300">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
@@ -5592,20 +5564,20 @@
       <c r="F25" s="26"/>
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="195"/>
+      <c r="I25" s="208"/>
+      <c r="J25" s="194"/>
       <c r="K25" s="203"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="89">
+      <c r="A26" s="88">
         <f>Page1!A25</f>
         <v>0</v>
       </c>
-      <c r="B26" s="90">
+      <c r="B26" s="89">
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C26" s="91">
+      <c r="C26" s="300">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
@@ -5614,20 +5586,20 @@
       <c r="F26" s="26"/>
       <c r="G26" s="27"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="195"/>
+      <c r="I26" s="208"/>
+      <c r="J26" s="194"/>
       <c r="K26" s="203"/>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="89">
+      <c r="A27" s="88">
         <f>Page1!A26</f>
         <v>0</v>
       </c>
-      <c r="B27" s="90">
+      <c r="B27" s="89">
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C27" s="91">
+      <c r="C27" s="300">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
@@ -5636,20 +5608,20 @@
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="195"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="194"/>
       <c r="K27" s="203"/>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="89">
+      <c r="A28" s="88">
         <f>Page1!A27</f>
         <v>0</v>
       </c>
-      <c r="B28" s="94">
+      <c r="B28" s="91">
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C28" s="91">
+      <c r="C28" s="300">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
@@ -5658,20 +5630,20 @@
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="195"/>
+      <c r="I28" s="208"/>
+      <c r="J28" s="194"/>
       <c r="K28" s="203"/>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="89">
+      <c r="A29" s="88">
         <f>Page1!A28</f>
         <v>0</v>
       </c>
-      <c r="B29" s="90">
+      <c r="B29" s="89">
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="91">
+      <c r="C29" s="300">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
@@ -5680,20 +5652,20 @@
       <c r="F29" s="26"/>
       <c r="G29" s="27"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="186"/>
-      <c r="J29" s="195"/>
+      <c r="I29" s="208"/>
+      <c r="J29" s="194"/>
       <c r="K29" s="203"/>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="95">
+      <c r="A30" s="92">
         <f>Page1!A29</f>
         <v>0</v>
       </c>
-      <c r="B30" s="94">
+      <c r="B30" s="91">
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="92">
+      <c r="C30" s="301">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
@@ -5702,20 +5674,20 @@
       <c r="F30" s="26"/>
       <c r="G30" s="27"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="195"/>
+      <c r="I30" s="208"/>
+      <c r="J30" s="194"/>
       <c r="K30" s="203"/>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="89">
+      <c r="A31" s="88">
         <f>Page1!A30</f>
         <v>0</v>
       </c>
-      <c r="B31" s="90">
+      <c r="B31" s="89">
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C31" s="91">
+      <c r="C31" s="300">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
@@ -5724,20 +5696,20 @@
       <c r="F31" s="26"/>
       <c r="G31" s="27"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="195"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="194"/>
       <c r="K31" s="203"/>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="89">
+      <c r="A32" s="88">
         <f>Page1!A31</f>
         <v>0</v>
       </c>
-      <c r="B32" s="90">
+      <c r="B32" s="89">
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C32" s="92">
+      <c r="C32" s="301">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
@@ -5746,20 +5718,20 @@
       <c r="F32" s="26"/>
       <c r="G32" s="27"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="195"/>
+      <c r="I32" s="208"/>
+      <c r="J32" s="194"/>
       <c r="K32" s="203"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="89">
+      <c r="A33" s="88">
         <f>Page1!A32</f>
         <v>0</v>
       </c>
-      <c r="B33" s="93">
+      <c r="B33" s="90">
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C33" s="92">
+      <c r="C33" s="301">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
@@ -5768,20 +5740,20 @@
       <c r="F33" s="26"/>
       <c r="G33" s="27"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="195"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="194"/>
       <c r="K33" s="203"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="89">
+      <c r="A34" s="88">
         <f>Page1!A33</f>
         <v>0</v>
       </c>
-      <c r="B34" s="90">
+      <c r="B34" s="89">
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="91">
+      <c r="C34" s="300">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
@@ -5790,20 +5762,20 @@
       <c r="F34" s="26"/>
       <c r="G34" s="27"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="195"/>
+      <c r="I34" s="208"/>
+      <c r="J34" s="194"/>
       <c r="K34" s="203"/>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89">
+      <c r="A35" s="88">
         <f>Page1!A34</f>
         <v>0</v>
       </c>
-      <c r="B35" s="90">
+      <c r="B35" s="89">
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C35" s="91">
+      <c r="C35" s="300">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
@@ -5812,20 +5784,20 @@
       <c r="F35" s="26"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="195"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="194"/>
       <c r="K35" s="203"/>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89">
+      <c r="A36" s="88">
         <f>Page1!A35</f>
         <v>0</v>
       </c>
-      <c r="B36" s="90">
+      <c r="B36" s="89">
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C36" s="91">
+      <c r="C36" s="300">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
@@ -5834,20 +5806,20 @@
       <c r="F36" s="26"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="186"/>
-      <c r="J36" s="195"/>
+      <c r="I36" s="208"/>
+      <c r="J36" s="194"/>
       <c r="K36" s="203"/>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="89">
+      <c r="A37" s="88">
         <f>Page1!A36</f>
         <v>0</v>
       </c>
-      <c r="B37" s="90">
+      <c r="B37" s="89">
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="91">
+      <c r="C37" s="300">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
@@ -5856,20 +5828,20 @@
       <c r="F37" s="26"/>
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="186"/>
-      <c r="J37" s="195"/>
+      <c r="I37" s="208"/>
+      <c r="J37" s="194"/>
       <c r="K37" s="203"/>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="89">
+      <c r="A38" s="88">
         <f>Page1!A37</f>
         <v>0</v>
       </c>
-      <c r="B38" s="90">
+      <c r="B38" s="89">
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C38" s="91">
+      <c r="C38" s="300">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
@@ -5878,20 +5850,20 @@
       <c r="F38" s="26"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="195"/>
+      <c r="I38" s="208"/>
+      <c r="J38" s="194"/>
       <c r="K38" s="203"/>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="96">
+      <c r="A39" s="93">
         <f>Page1!A38</f>
         <v>0</v>
       </c>
-      <c r="B39" s="97">
+      <c r="B39" s="94">
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="98">
+      <c r="C39" s="302">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
@@ -5900,16 +5872,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="186"/>
-      <c r="J39" s="195"/>
+      <c r="I39" s="208"/>
+      <c r="J39" s="194"/>
       <c r="K39" s="203"/>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="227" t="s">
+      <c r="A40" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="228"/>
-      <c r="C40" s="228"/>
+      <c r="B40" s="226"/>
+      <c r="C40" s="226"/>
       <c r="D40" s="29" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -5930,16 +5902,16 @@
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="195"/>
-      <c r="J40" s="195"/>
+      <c r="I40" s="194"/>
+      <c r="J40" s="194"/>
       <c r="K40" s="203"/>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="184" t="s">
+      <c r="A41" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="185"/>
-      <c r="C41" s="185"/>
+      <c r="B41" s="216"/>
+      <c r="C41" s="216"/>
       <c r="D41" s="32">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -5960,16 +5932,16 @@
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="195"/>
-      <c r="J41" s="195"/>
+      <c r="I41" s="194"/>
+      <c r="J41" s="194"/>
       <c r="K41" s="203"/>
     </row>
     <row r="42" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="178" t="s">
+      <c r="A42" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
+      <c r="B42" s="212"/>
+      <c r="C42" s="212"/>
       <c r="D42" s="35">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -5990,16 +5962,16 @@
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="197"/>
-      <c r="J42" s="197"/>
+      <c r="I42" s="196"/>
+      <c r="J42" s="196"/>
       <c r="K42" s="204"/>
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="171"/>
-      <c r="C43" s="171"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
       <c r="D43" s="38" t="s">
         <v>22</v>
       </c>
@@ -6016,8 +5988,8 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="146"/>
       <c r="D44" s="38"/>
       <c r="F44" s="39"/>
       <c r="G44" s="40"/>
@@ -6026,11 +5998,11 @@
       <c r="J44" s="17"/>
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="155" t="s">
+      <c r="A45" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="155"/>
-      <c r="C45" s="155"/>
+      <c r="B45" s="129"/>
+      <c r="C45" s="129"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
       <c r="F45" s="40" t="s">
@@ -6043,11 +6015,11 @@
       <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="155" t="s">
+      <c r="A46" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="155"/>
-      <c r="C46" s="155"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="129"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
@@ -6072,6 +6044,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A7:C9"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="A1:J1"/>
@@ -6088,15 +6069,6 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A7:C9"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="notBetween">
@@ -6140,214 +6112,214 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.42578125" style="99" customWidth="1"/>
-    <col min="3" max="5" width="12.85546875" style="99" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="99" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="99" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="130"/>
+    <col min="1" max="2" width="21.42578125" style="95" customWidth="1"/>
+    <col min="3" max="5" width="12.85546875" style="95" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="95" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="95" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="126"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="299" t="s">
+    <row r="1" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="231" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="301"/>
-    </row>
-    <row r="2" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="102" t="s">
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="233"/>
+    </row>
+    <row r="2" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="99" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+    <row r="3" spans="1:7" s="95" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="277" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="244"/>
-    </row>
-    <row r="4" spans="1:7" s="99" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="186" t="s">
+      <c r="B3" s="278"/>
+      <c r="C3" s="278"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="278"/>
+      <c r="G3" s="279"/>
+    </row>
+    <row r="4" spans="1:7" s="95" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="195"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="195"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
       <c r="G4" s="203"/>
     </row>
-    <row r="5" spans="1:7" s="99" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="239" t="s">
+    <row r="5" spans="1:7" s="95" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="274" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="240"/>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="240"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="241"/>
-    </row>
-    <row r="6" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
+      <c r="B5" s="275"/>
+      <c r="C5" s="275"/>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="276"/>
+    </row>
+    <row r="6" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="269">
+      <c r="D6" s="234">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="271"/>
-      <c r="F6" s="297" t="s">
+      <c r="E6" s="235"/>
+      <c r="F6" s="227" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="247">
+      <c r="G6" s="236">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+    <row r="7" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="105" t="s">
+      <c r="B7" s="103"/>
+      <c r="C7" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="269">
+      <c r="D7" s="234">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="271"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="302"/>
-    </row>
-    <row r="8" spans="1:7" s="99" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
+      <c r="E7" s="235"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="237"/>
+    </row>
+    <row r="8" spans="1:7" s="95" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="106">
+      <c r="B8" s="102">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="297">
+      <c r="D8" s="227">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="297"/>
-      <c r="F8" s="250" t="s">
+      <c r="E8" s="227"/>
+      <c r="F8" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="247">
+      <c r="G8" s="236">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="109" t="s">
+    <row r="9" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="108">
+      <c r="B9" s="104">
         <f>Page1!G44</f>
         <v>461303600</v>
       </c>
-      <c r="C9" s="250" t="s">
+      <c r="C9" s="228" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="252" t="s">
+      <c r="D9" s="284" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="253"/>
-      <c r="F9" s="298"/>
-      <c r="G9" s="248"/>
-    </row>
-    <row r="10" spans="1:7" s="99" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110" t="s">
+      <c r="E9" s="285"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="282"/>
+    </row>
+    <row r="10" spans="1:7" s="95" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="111">
+      <c r="B10" s="107">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="251"/>
-      <c r="D10" s="254"/>
-      <c r="E10" s="255"/>
-      <c r="F10" s="251"/>
-      <c r="G10" s="249"/>
-    </row>
-    <row r="11" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="256" t="s">
+      <c r="C10" s="230"/>
+      <c r="D10" s="286"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="230"/>
+      <c r="G10" s="283"/>
+    </row>
+    <row r="11" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="288" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="258" t="s">
+      <c r="B11" s="290" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="260" t="s">
+      <c r="C11" s="292" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="261"/>
-      <c r="E11" s="262"/>
-      <c r="F11" s="258" t="s">
+      <c r="D11" s="293"/>
+      <c r="E11" s="294"/>
+      <c r="F11" s="290" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="263" t="s">
+      <c r="G11" s="295" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="257"/>
-      <c r="B12" s="259"/>
-      <c r="C12" s="112" t="s">
+    <row r="12" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="289"/>
+      <c r="B12" s="291"/>
+      <c r="C12" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="112" t="s">
+      <c r="E12" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="259"/>
-      <c r="G12" s="264"/>
-    </row>
-    <row r="13" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="F12" s="291"/>
+      <c r="G12" s="296"/>
+    </row>
+    <row r="13" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="115">
+      <c r="C13" s="111">
         <v>17</v>
       </c>
-      <c r="D13" s="115">
+      <c r="D13" s="111">
         <v>18</v>
       </c>
-      <c r="E13" s="115">
+      <c r="E13" s="111">
         <v>20</v>
       </c>
-      <c r="F13" s="116" t="e">
+      <c r="F13" s="112" t="e">
         <f>Page1!D39</f>
         <v>#DIV/0!</v>
       </c>
@@ -6355,169 +6327,169 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="117" t="s">
+    <row r="14" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="119">
+      <c r="C14" s="115">
         <v>18</v>
       </c>
-      <c r="D14" s="119">
+      <c r="D14" s="115">
         <v>23</v>
       </c>
-      <c r="E14" s="119">
+      <c r="E14" s="115">
         <v>28</v>
       </c>
-      <c r="F14" s="120" t="e">
+      <c r="F14" s="116" t="e">
         <f>Page1!E39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="121" t="s">
+      <c r="G14" s="117" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="117" t="s">
+    <row r="15" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="119">
+      <c r="C15" s="115">
         <v>300</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="119" t="s">
+      <c r="E15" s="115" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="61" t="e">
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="293" t="s">
+      <c r="G15" s="238" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="117" t="s">
+    <row r="16" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="119">
+      <c r="C16" s="115">
         <v>300</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="119" t="s">
+      <c r="E16" s="115" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="61" t="e">
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="234"/>
-    </row>
-    <row r="17" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="117" t="s">
+      <c r="G16" s="222"/>
+    </row>
+    <row r="17" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="119">
+      <c r="C17" s="115">
         <v>900</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="119">
+      <c r="E17" s="115">
         <v>1200</v>
       </c>
       <c r="F17" s="61" t="e">
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="234"/>
-    </row>
-    <row r="18" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="117" t="s">
+      <c r="G17" s="222"/>
+    </row>
+    <row r="18" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="119">
+      <c r="C18" s="115">
         <v>700</v>
       </c>
-      <c r="D18" s="119" t="s">
+      <c r="D18" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="119">
+      <c r="E18" s="115">
         <v>1000</v>
       </c>
       <c r="F18" s="61" t="e">
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="234"/>
-    </row>
-    <row r="19" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="117" t="s">
+      <c r="G18" s="222"/>
+    </row>
+    <row r="19" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="119">
+      <c r="C19" s="115">
         <v>350</v>
       </c>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="115" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="61" t="e">
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="234"/>
-    </row>
-    <row r="20" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="117" t="s">
+      <c r="G19" s="222"/>
+    </row>
+    <row r="20" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="119">
+      <c r="C20" s="115">
         <v>400</v>
       </c>
-      <c r="D20" s="119" t="s">
+      <c r="D20" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="119" t="s">
+      <c r="E20" s="115" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="61" t="e">
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="234"/>
-    </row>
-    <row r="21" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="117" t="s">
+      <c r="G20" s="222"/>
+    </row>
+    <row r="21" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="114" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="33">
@@ -6533,13 +6505,13 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="234"/>
-    </row>
-    <row r="22" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="117" t="s">
+      <c r="G21" s="222"/>
+    </row>
+    <row r="22" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="114" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="33">
@@ -6555,13 +6527,13 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="150"/>
-    </row>
-    <row r="23" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="117" t="s">
+      <c r="G22" s="163"/>
+    </row>
+    <row r="23" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="114" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="61">
@@ -6577,18 +6549,18 @@
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="121" t="s">
+      <c r="G23" s="117" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="117" t="s">
+    <row r="24" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="115" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="61">
@@ -6603,38 +6575,38 @@
         <f>Page2!I41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="121" t="s">
+      <c r="G24" s="117" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="117" t="s">
+    <row r="25" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="114" t="s">
         <v>89</v>
       </c>
       <c r="C25" s="61">
         <v>6000</v>
       </c>
-      <c r="D25" s="119" t="s">
+      <c r="D25" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="119" t="s">
+      <c r="E25" s="115" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="61">
         <v>6000</v>
       </c>
-      <c r="G25" s="121" t="s">
+      <c r="G25" s="117" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="123" t="s">
+    <row r="26" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="124" t="s">
+      <c r="B26" s="120" t="s">
         <v>86</v>
       </c>
       <c r="C26" s="83">
@@ -6643,72 +6615,72 @@
       <c r="D26" s="83">
         <v>430</v>
       </c>
-      <c r="E26" s="125">
+      <c r="E26" s="121">
         <v>450</v>
       </c>
-      <c r="F26" s="125" t="e">
+      <c r="F26" s="121" t="e">
         <f>Page2!K41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="122" t="s">
+      <c r="G26" s="118" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="290" t="s">
+    <row r="27" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="239" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="291"/>
-      <c r="C27" s="291"/>
-      <c r="D27" s="291"/>
-      <c r="E27" s="291"/>
-      <c r="F27" s="291"/>
-      <c r="G27" s="292"/>
-    </row>
-    <row r="28" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="267" t="s">
+      <c r="B27" s="240"/>
+      <c r="C27" s="240"/>
+      <c r="D27" s="240"/>
+      <c r="E27" s="240"/>
+      <c r="F27" s="240"/>
+      <c r="G27" s="241"/>
+    </row>
+    <row r="28" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="242" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="268"/>
-      <c r="C28" s="294" t="s">
+      <c r="B28" s="243"/>
+      <c r="C28" s="244" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="295"/>
-      <c r="E28" s="296"/>
-      <c r="F28" s="126" t="s">
+      <c r="D28" s="245"/>
+      <c r="E28" s="246"/>
+      <c r="F28" s="122" t="s">
         <v>95</v>
       </c>
       <c r="G28" s="82" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="272" t="s">
+    <row r="29" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="247" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="271"/>
-      <c r="C29" s="284" t="s">
+      <c r="B29" s="235"/>
+      <c r="C29" s="248" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="285"/>
-      <c r="E29" s="286"/>
+      <c r="D29" s="249"/>
+      <c r="E29" s="250"/>
       <c r="F29" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="121" t="s">
+      <c r="G29" s="117" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="272" t="s">
+    <row r="30" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="247" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="271"/>
-      <c r="C30" s="284" t="s">
+      <c r="B30" s="235"/>
+      <c r="C30" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="285"/>
-      <c r="E30" s="286"/>
+      <c r="D30" s="249"/>
+      <c r="E30" s="250"/>
       <c r="F30" s="60" t="s">
         <v>95</v>
       </c>
@@ -6716,95 +6688,95 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="272" t="s">
+    <row r="31" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="247" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="271"/>
-      <c r="C31" s="284" t="s">
+      <c r="B31" s="235"/>
+      <c r="C31" s="248" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="285"/>
-      <c r="E31" s="286"/>
+      <c r="D31" s="249"/>
+      <c r="E31" s="250"/>
       <c r="F31" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="121" t="s">
+      <c r="G31" s="117" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="272" t="s">
+    <row r="32" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="247" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="271"/>
-      <c r="C32" s="284" t="s">
+      <c r="B32" s="235"/>
+      <c r="C32" s="248" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="285"/>
-      <c r="E32" s="286"/>
+      <c r="D32" s="249"/>
+      <c r="E32" s="250"/>
       <c r="F32" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="121" t="s">
+      <c r="G32" s="117" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="272" t="s">
+    <row r="33" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="247" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="271"/>
-      <c r="C33" s="284" t="s">
+      <c r="B33" s="235"/>
+      <c r="C33" s="248" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="285"/>
-      <c r="E33" s="286"/>
+      <c r="D33" s="249"/>
+      <c r="E33" s="250"/>
       <c r="F33" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="121" t="s">
+      <c r="G33" s="117" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="99" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="142" t="s">
+    <row r="34" spans="1:7" s="95" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="143"/>
-      <c r="C34" s="287" t="s">
+      <c r="B34" s="156"/>
+      <c r="C34" s="253" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="288"/>
-      <c r="E34" s="289"/>
-      <c r="F34" s="127" t="s">
+      <c r="D34" s="254"/>
+      <c r="E34" s="255"/>
+      <c r="F34" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="132" t="s">
+      <c r="G34" s="128" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="290" t="s">
+    <row r="35" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="239" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="291"/>
-      <c r="C35" s="291"/>
-      <c r="D35" s="291"/>
-      <c r="E35" s="291"/>
-      <c r="F35" s="291"/>
-      <c r="G35" s="292"/>
-    </row>
-    <row r="36" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="134" t="s">
+      <c r="B35" s="240"/>
+      <c r="C35" s="240"/>
+      <c r="D35" s="240"/>
+      <c r="E35" s="240"/>
+      <c r="F35" s="240"/>
+      <c r="G35" s="241"/>
+    </row>
+    <row r="36" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="149" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="135"/>
-      <c r="C36" s="282" t="s">
+      <c r="B36" s="150"/>
+      <c r="C36" s="251" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="283"/>
-      <c r="E36" s="135"/>
+      <c r="D36" s="252"/>
+      <c r="E36" s="150"/>
       <c r="F36" s="10" t="s">
         <v>95</v>
       </c>
@@ -6812,167 +6784,128 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="267" t="s">
+    <row r="37" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="242" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="268"/>
-      <c r="C37" s="269" t="s">
+      <c r="B37" s="243"/>
+      <c r="C37" s="234" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="270"/>
-      <c r="E37" s="271"/>
-      <c r="F37" s="119" t="s">
+      <c r="D37" s="257"/>
+      <c r="E37" s="235"/>
+      <c r="F37" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="121" t="s">
+      <c r="G37" s="117" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="272" t="s">
+    <row r="38" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="247" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="271"/>
-      <c r="C38" s="269" t="s">
+      <c r="B38" s="235"/>
+      <c r="C38" s="234" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="270"/>
-      <c r="E38" s="271"/>
-      <c r="F38" s="119" t="s">
+      <c r="D38" s="257"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="121" t="s">
+      <c r="G38" s="117" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="142" t="s">
+    <row r="39" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="155" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="143"/>
-      <c r="C39" s="245" t="s">
+      <c r="B39" s="156"/>
+      <c r="C39" s="280" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="246"/>
-      <c r="E39" s="143"/>
+      <c r="D39" s="281"/>
+      <c r="E39" s="156"/>
       <c r="F39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="122" t="s">
+      <c r="G39" s="118" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="273" t="s">
+    <row r="40" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="258" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="274"/>
-      <c r="C40" s="275" t="s">
+      <c r="B40" s="259"/>
+      <c r="C40" s="260" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="276"/>
-      <c r="E40" s="277"/>
-      <c r="F40" s="275" t="s">
+      <c r="D40" s="261"/>
+      <c r="E40" s="262"/>
+      <c r="F40" s="260" t="s">
         <v>137</v>
       </c>
-      <c r="G40" s="277"/>
-    </row>
-    <row r="41" spans="1:7" s="99" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="278"/>
-      <c r="B41" s="279"/>
-      <c r="C41" s="303"/>
-      <c r="D41" s="304"/>
-      <c r="E41" s="305"/>
-      <c r="F41" s="303"/>
-      <c r="G41" s="305"/>
-    </row>
-    <row r="42" spans="1:7" s="99" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="280"/>
-      <c r="B42" s="281"/>
-      <c r="C42" s="306" t="s">
+      <c r="G40" s="262"/>
+    </row>
+    <row r="41" spans="1:7" s="95" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="263"/>
+      <c r="B41" s="264"/>
+      <c r="C41" s="267"/>
+      <c r="D41" s="268"/>
+      <c r="E41" s="269"/>
+      <c r="F41" s="267"/>
+      <c r="G41" s="269"/>
+    </row>
+    <row r="42" spans="1:7" s="95" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="265"/>
+      <c r="B42" s="266"/>
+      <c r="C42" s="270" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="307"/>
-      <c r="E42" s="308"/>
-      <c r="F42" s="306" t="s">
+      <c r="D42" s="271"/>
+      <c r="E42" s="272"/>
+      <c r="F42" s="270" t="s">
         <v>138</v>
       </c>
-      <c r="G42" s="308"/>
+      <c r="G42" s="272"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="128"/>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="265"/>
-      <c r="F43" s="265"/>
-      <c r="G43" s="265"/>
+      <c r="A43" s="124"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="297"/>
+      <c r="F43" s="297"/>
+      <c r="G43" s="297"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="129"/>
-      <c r="C44" s="131"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="266"/>
-      <c r="F44" s="266"/>
-      <c r="G44" s="266"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="256"/>
+      <c r="F44" s="256"/>
+      <c r="G44" s="256"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="238" t="s">
+      <c r="A46" s="273" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="238"/>
+      <c r="B46" s="273"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="238" t="s">
+      <c r="A47" s="273" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="238"/>
+      <c r="B47" s="273"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A4:G4"/>
@@ -6989,9 +6922,48 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="G15:G22"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
-  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.78740157480314965" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/backend/templates/UC-18gsm-250P-ABQR.xlsx
+++ b/backend/templates/UC-18gsm-250P-ABQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A8DCE6-2339-4B2F-A16C-A4C05C36191F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022AE516-17FA-4BD4-95E2-E0C1F895EA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1430,7 +1430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1794,9 +1794,6 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1806,9 +1803,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1822,12 +1816,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1843,6 +1831,90 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1858,15 +1930,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1900,106 +1966,125 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2008,6 +2093,10 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2020,111 +2109,34 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2142,27 +2154,207 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2172,214 +2364,37 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2955,35 +2970,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -3004,12 +3019,12 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:13" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="158"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="141"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3021,19 +3036,19 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="164"/>
-      <c r="K4" s="165"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="148"/>
       <c r="M4" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="160"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="143"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3045,28 +3060,28 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="166"/>
-      <c r="K5" s="167"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="150"/>
     </row>
     <row r="6" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="131"/>
-      <c r="C6" s="132"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="154"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="153"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="162"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="145"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="155" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="134"/>
@@ -3080,29 +3095,29 @@
       <c r="F7" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="151" t="s">
+      <c r="G7" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="151" t="s">
+      <c r="H7" s="132" t="s">
         <v>126</v>
       </c>
       <c r="I7" s="134" t="s">
         <v>1</v>
       </c>
       <c r="J7" s="134"/>
-      <c r="K7" s="163"/>
+      <c r="K7" s="146"/>
     </row>
     <row r="8" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="135"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136" t="s">
+      <c r="A8" s="156"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="136"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3504,11 +3519,11 @@
       <c r="K38" s="72"/>
     </row>
     <row r="39" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="143" t="s">
+      <c r="A39" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="144"/>
-      <c r="C39" s="145"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="165"/>
       <c r="D39" s="30" t="e">
         <f t="shared" ref="D39:K39" si="0">AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3543,11 +3558,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="140" t="s">
+      <c r="A40" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="141"/>
-      <c r="C40" s="142"/>
+      <c r="B40" s="161"/>
+      <c r="C40" s="162"/>
       <c r="D40" s="33">
         <f t="shared" ref="D40:K40" si="1">MIN(D9:D38)</f>
         <v>0</v>
@@ -3582,11 +3597,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="137" t="s">
+      <c r="A41" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="138"/>
-      <c r="C41" s="139"/>
+      <c r="B41" s="158"/>
+      <c r="C41" s="159"/>
       <c r="D41" s="79">
         <f t="shared" ref="D41:K41" si="2">MAX(D9:D38)</f>
         <v>0</v>
@@ -3627,8 +3642,8 @@
       <c r="A42" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="147"/>
-      <c r="C42" s="147"/>
+      <c r="B42" s="167"/>
+      <c r="C42" s="167"/>
       <c r="D42" s="38" t="s">
         <v>22</v>
       </c>
@@ -3645,8 +3660,8 @@
     </row>
     <row r="43" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
+      <c r="B43" s="166"/>
+      <c r="C43" s="166"/>
       <c r="D43" s="38"/>
       <c r="F43" s="39"/>
       <c r="G43" s="40"/>
@@ -3655,11 +3670,11 @@
       <c r="J43" s="17"/>
     </row>
     <row r="44" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="129" t="s">
+      <c r="A44" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="129"/>
-      <c r="C44" s="129"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
       <c r="F44" s="40" t="s">
@@ -3671,11 +3686,11 @@
       <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:14" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="129" t="s">
+      <c r="A45" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="129"/>
-      <c r="C45" s="129"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="151"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
@@ -3704,6 +3719,16 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A4:B4"/>
@@ -3719,16 +3744,6 @@
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D41">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="notBetween">
@@ -3800,35 +3815,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -3849,18 +3864,18 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="150">
+      <c r="B4" s="131">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="205">
+      <c r="C4" s="198">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="206"/>
+      <c r="D4" s="175"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3878,25 +3893,25 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="197">
+      <c r="J4" s="191">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="198"/>
+      <c r="K4" s="192"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="156">
+      <c r="B5" s="139">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="159">
+      <c r="C5" s="142">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="160"/>
+      <c r="D5" s="143"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -3914,104 +3929,104 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="199">
+      <c r="J5" s="193">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="200"/>
+      <c r="K5" s="194"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="209" t="s">
+      <c r="A6" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="210"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="189"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="186"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="207" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="192"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="224" t="s">
+      <c r="A7" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="170"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="192"/>
-      <c r="F7" s="206"/>
-      <c r="G7" s="190" t="s">
+      <c r="E7" s="170"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="192"/>
-      <c r="I7" s="190" t="s">
+      <c r="H7" s="170"/>
+      <c r="I7" s="187" t="s">
         <v>132</v>
       </c>
-      <c r="J7" s="191"/>
-      <c r="K7" s="202" t="s">
+      <c r="J7" s="171"/>
+      <c r="K7" s="195" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="208"/>
-      <c r="B8" s="298"/>
-      <c r="C8" s="201"/>
-      <c r="D8" s="298" t="s">
+      <c r="A8" s="200"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="217" t="s">
+      <c r="E8" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="201" t="s">
+      <c r="F8" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="193"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="193" t="s">
+      <c r="G8" s="188"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="188" t="s">
         <v>131</v>
       </c>
-      <c r="J8" s="201"/>
-      <c r="K8" s="203"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="196"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="208"/>
-      <c r="B9" s="298"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="298"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="201"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="194"/>
+      <c r="A9" s="200"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="188"/>
+      <c r="H9" s="189"/>
       <c r="I9" s="47" t="s">
         <v>127</v>
       </c>
       <c r="J9" s="48">
         <v>250</v>
       </c>
-      <c r="K9" s="203"/>
+      <c r="K9" s="196"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="208"/>
-      <c r="B10" s="298"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="196"/>
+      <c r="A10" s="200"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="181"/>
       <c r="I10" s="49" t="s">
         <v>128</v>
       </c>
       <c r="J10" s="50">
         <v>253</v>
       </c>
-      <c r="K10" s="204"/>
+      <c r="K10" s="197"/>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="86">
@@ -4022,17 +4037,17 @@
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C11" s="299">
+      <c r="C11" s="125">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
       <c r="F11" s="52"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="185"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="202"/>
       <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4044,17 +4059,17 @@
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="300">
+      <c r="C12" s="126">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
       <c r="D12" s="54"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="171"/>
+      <c r="G12" s="209"/>
+      <c r="H12" s="209"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="204"/>
       <c r="K12" s="56"/>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4066,17 +4081,17 @@
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C13" s="301">
+      <c r="C13" s="127">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
       <c r="D13" s="54"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="171"/>
+      <c r="G13" s="209"/>
+      <c r="H13" s="209"/>
+      <c r="I13" s="203"/>
+      <c r="J13" s="204"/>
       <c r="K13" s="56"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4088,17 +4103,17 @@
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="301">
+      <c r="C14" s="127">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="171"/>
+      <c r="G14" s="209"/>
+      <c r="H14" s="209"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="204"/>
       <c r="K14" s="56"/>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4110,17 +4125,17 @@
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C15" s="300">
+      <c r="C15" s="126">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="171"/>
+      <c r="G15" s="209"/>
+      <c r="H15" s="209"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="204"/>
       <c r="K15" s="56"/>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4132,17 +4147,17 @@
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C16" s="300">
+      <c r="C16" s="126">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
       <c r="D16" s="51"/>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="171"/>
+      <c r="G16" s="216"/>
+      <c r="H16" s="216"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="204"/>
       <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4154,17 +4169,17 @@
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C17" s="300">
+      <c r="C17" s="126">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
       <c r="D17" s="54"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="171"/>
+      <c r="G17" s="209"/>
+      <c r="H17" s="209"/>
+      <c r="I17" s="203"/>
+      <c r="J17" s="204"/>
       <c r="K17" s="56"/>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4176,17 +4191,17 @@
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C18" s="300">
+      <c r="C18" s="126">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
       <c r="D18" s="54"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="171"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="203"/>
+      <c r="J18" s="204"/>
       <c r="K18" s="56"/>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4198,17 +4213,17 @@
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C19" s="300">
+      <c r="C19" s="126">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
       <c r="D19" s="54"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="171"/>
+      <c r="G19" s="209"/>
+      <c r="H19" s="209"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="204"/>
       <c r="K19" s="56"/>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4220,17 +4235,17 @@
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C20" s="300">
+      <c r="C20" s="126">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
       <c r="D20" s="54"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="171"/>
+      <c r="G20" s="214"/>
+      <c r="H20" s="215"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="204"/>
       <c r="K20" s="56"/>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4242,17 +4257,17 @@
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="301">
+      <c r="C21" s="127">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
       <c r="D21" s="54"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="171"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="215"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="204"/>
       <c r="K21" s="56"/>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4264,17 +4279,17 @@
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C22" s="300">
+      <c r="C22" s="126">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
       <c r="D22" s="54"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="171"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="204"/>
       <c r="K22" s="56"/>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4286,17 +4301,17 @@
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C23" s="301">
+      <c r="C23" s="127">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
       <c r="D23" s="54"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="171"/>
+      <c r="G23" s="214"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="203"/>
+      <c r="J23" s="204"/>
       <c r="K23" s="56"/>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4308,17 +4323,17 @@
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C24" s="301">
+      <c r="C24" s="127">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
       <c r="D24" s="54"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="171"/>
+      <c r="G24" s="214"/>
+      <c r="H24" s="215"/>
+      <c r="I24" s="203"/>
+      <c r="J24" s="204"/>
       <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4330,17 +4345,17 @@
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C25" s="300">
+      <c r="C25" s="126">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
       <c r="D25" s="54"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="171"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="215"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="204"/>
       <c r="K25" s="56"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4352,17 +4367,17 @@
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C26" s="300">
+      <c r="C26" s="126">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
       <c r="D26" s="54"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="171"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="215"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="204"/>
       <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4374,17 +4389,17 @@
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C27" s="300">
+      <c r="C27" s="126">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
       <c r="D27" s="54"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="171"/>
+      <c r="G27" s="214"/>
+      <c r="H27" s="215"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="204"/>
       <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4396,17 +4411,17 @@
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C28" s="300">
+      <c r="C28" s="126">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
       <c r="D28" s="54"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="171"/>
+      <c r="G28" s="214"/>
+      <c r="H28" s="215"/>
+      <c r="I28" s="203"/>
+      <c r="J28" s="204"/>
       <c r="K28" s="56"/>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4418,17 +4433,17 @@
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C29" s="300">
+      <c r="C29" s="126">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
       <c r="D29" s="54"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="171"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="215"/>
+      <c r="I29" s="203"/>
+      <c r="J29" s="204"/>
       <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4440,17 +4455,17 @@
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C30" s="300">
+      <c r="C30" s="126">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
       <c r="D30" s="54"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="171"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="215"/>
+      <c r="I30" s="203"/>
+      <c r="J30" s="204"/>
       <c r="K30" s="56"/>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4462,17 +4477,17 @@
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C31" s="301">
+      <c r="C31" s="127">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
       <c r="D31" s="54"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="171"/>
+      <c r="G31" s="214"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="204"/>
       <c r="K31" s="56"/>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4484,17 +4499,17 @@
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C32" s="300">
+      <c r="C32" s="126">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
       <c r="D32" s="54"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="171"/>
+      <c r="G32" s="214"/>
+      <c r="H32" s="215"/>
+      <c r="I32" s="203"/>
+      <c r="J32" s="204"/>
       <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4506,17 +4521,17 @@
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C33" s="301">
+      <c r="C33" s="127">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
       <c r="D33" s="54"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="171"/>
+      <c r="G33" s="214"/>
+      <c r="H33" s="215"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="204"/>
       <c r="K33" s="56"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4528,17 +4543,17 @@
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C34" s="301">
+      <c r="C34" s="127">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
       <c r="D34" s="54"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="169"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="171"/>
+      <c r="G34" s="214"/>
+      <c r="H34" s="215"/>
+      <c r="I34" s="203"/>
+      <c r="J34" s="204"/>
       <c r="K34" s="56"/>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4550,17 +4565,17 @@
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C35" s="300">
+      <c r="C35" s="126">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
       <c r="D35" s="54"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="169"/>
-      <c r="I35" s="170"/>
-      <c r="J35" s="171"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="203"/>
+      <c r="J35" s="204"/>
       <c r="K35" s="56"/>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4572,17 +4587,17 @@
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C36" s="300">
+      <c r="C36" s="126">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
       <c r="D36" s="54"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55"/>
-      <c r="G36" s="168"/>
-      <c r="H36" s="169"/>
-      <c r="I36" s="170"/>
-      <c r="J36" s="171"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="215"/>
+      <c r="I36" s="203"/>
+      <c r="J36" s="204"/>
       <c r="K36" s="56"/>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4594,17 +4609,17 @@
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C37" s="300">
+      <c r="C37" s="126">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
       <c r="D37" s="54"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55"/>
-      <c r="G37" s="168"/>
-      <c r="H37" s="169"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="171"/>
+      <c r="G37" s="214"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="204"/>
       <c r="K37" s="56"/>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4616,17 +4631,17 @@
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C38" s="300">
+      <c r="C38" s="126">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
       <c r="D38" s="54"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
-      <c r="G38" s="168"/>
-      <c r="H38" s="169"/>
-      <c r="I38" s="170"/>
-      <c r="J38" s="171"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="203"/>
+      <c r="J38" s="204"/>
       <c r="K38" s="56"/>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4638,17 +4653,17 @@
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C39" s="300">
+      <c r="C39" s="126">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
       <c r="D39" s="54"/>
       <c r="E39" s="55"/>
       <c r="F39" s="55"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="169"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="171"/>
+      <c r="G39" s="214"/>
+      <c r="H39" s="215"/>
+      <c r="I39" s="203"/>
+      <c r="J39" s="204"/>
       <c r="K39" s="56"/>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4660,25 +4675,25 @@
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C40" s="302">
+      <c r="C40" s="128">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
       <c r="D40" s="54"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
-      <c r="G40" s="173"/>
-      <c r="H40" s="173"/>
-      <c r="I40" s="170"/>
-      <c r="J40" s="171"/>
+      <c r="G40" s="209"/>
+      <c r="H40" s="209"/>
+      <c r="I40" s="203"/>
+      <c r="J40" s="204"/>
       <c r="K40" s="56"/>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="213" t="s">
+      <c r="A41" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="214"/>
-      <c r="C41" s="214"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
       <c r="D41" s="57" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4691,27 +4706,27 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="176" t="e">
+      <c r="G41" s="219" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="177"/>
-      <c r="I41" s="174" t="e">
+      <c r="H41" s="220"/>
+      <c r="I41" s="217" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="175"/>
+      <c r="J41" s="218"/>
       <c r="K41" s="59" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="215" t="s">
+      <c r="A42" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="216"/>
-      <c r="C42" s="216"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
       <c r="D42" s="60">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4724,27 +4739,27 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="182">
+      <c r="G42" s="212">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="183"/>
-      <c r="I42" s="186">
+      <c r="H42" s="213"/>
+      <c r="I42" s="205">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="187"/>
+      <c r="J42" s="206"/>
       <c r="K42" s="62">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="211" t="s">
+      <c r="A43" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="212"/>
-      <c r="C43" s="212"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="173"/>
       <c r="D43" s="63">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4757,16 +4772,16 @@
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="180">
+      <c r="G43" s="210">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="181"/>
-      <c r="I43" s="178">
+      <c r="H43" s="211"/>
+      <c r="I43" s="207">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="179"/>
+      <c r="J43" s="208"/>
       <c r="K43" s="65">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4776,8 +4791,8 @@
       <c r="A44" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="147"/>
+      <c r="B44" s="167"/>
+      <c r="C44" s="167"/>
       <c r="D44" s="38" t="s">
         <v>22</v>
       </c>
@@ -4794,8 +4809,8 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
-      <c r="B45" s="146"/>
-      <c r="C45" s="146"/>
+      <c r="B45" s="166"/>
+      <c r="C45" s="166"/>
       <c r="D45" s="38"/>
       <c r="F45" s="39"/>
       <c r="G45" s="40"/>
@@ -4804,11 +4819,11 @@
       <c r="J45" s="17"/>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="129"/>
-      <c r="C46" s="129"/>
+      <c r="B46" s="151"/>
+      <c r="C46" s="151"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="40" t="s">
@@ -4821,11 +4836,11 @@
       <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="129" t="s">
+      <c r="A47" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="129"/>
-      <c r="C47" s="129"/>
+      <c r="B47" s="151"/>
+      <c r="C47" s="151"/>
       <c r="D47" s="38"/>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
@@ -4880,47 +4895,43 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H10"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G40:H40"/>
@@ -4937,43 +4948,47 @@
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H10"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
@@ -5034,35 +5049,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
       <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
       <c r="K2" s="16" t="s">
         <v>29</v>
       </c>
@@ -5083,15 +5098,15 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="205">
+      <c r="B4" s="131"/>
+      <c r="C4" s="198">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="206"/>
+      <c r="D4" s="175"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
@@ -5109,22 +5124,22 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="197">
+      <c r="J4" s="191">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="198"/>
+      <c r="K4" s="192"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="159">
+      <c r="B5" s="139"/>
+      <c r="C5" s="142">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="160"/>
+      <c r="D5" s="143"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -5142,79 +5157,79 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="199">
+      <c r="J5" s="193">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="200"/>
+      <c r="K5" s="194"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="219" t="s">
+      <c r="A6" s="223" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="220"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="154"/>
+      <c r="B6" s="224"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="137"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="207"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="202"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="195"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="207" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="192"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="224" t="s">
+      <c r="A7" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="170"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="224"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="206"/>
-      <c r="H7" s="221" t="s">
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="225" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="208"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="203"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="196"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="208"/>
-      <c r="B8" s="298"/>
-      <c r="C8" s="201"/>
-      <c r="D8" s="303" t="s">
+      <c r="A8" s="200"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="228" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="217" t="s">
+      <c r="E8" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="217" t="s">
+      <c r="F8" s="182" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="217" t="s">
+      <c r="G8" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="222"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="203"/>
+      <c r="H8" s="226"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="189"/>
+      <c r="K8" s="196"/>
     </row>
     <row r="9" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="208"/>
-      <c r="B9" s="298"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="218"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="223"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="203"/>
+      <c r="A9" s="200"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="227"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="196"/>
     </row>
     <row r="10" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="86">
@@ -5225,7 +5240,7 @@
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="299">
+      <c r="C10" s="125">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
@@ -5234,9 +5249,9 @@
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="203"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="196"/>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="88">
@@ -5247,7 +5262,7 @@
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="300">
+      <c r="C11" s="126">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
@@ -5256,9 +5271,9 @@
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="208"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="203"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="196"/>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="88">
@@ -5269,7 +5284,7 @@
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C12" s="301">
+      <c r="C12" s="127">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
@@ -5278,9 +5293,9 @@
       <c r="F12" s="26"/>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="208"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="203"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="196"/>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="88">
@@ -5291,7 +5306,7 @@
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="301">
+      <c r="C13" s="127">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
@@ -5300,9 +5315,9 @@
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="194"/>
-      <c r="K13" s="203"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="196"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="88">
@@ -5313,7 +5328,7 @@
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C14" s="300">
+      <c r="C14" s="126">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
@@ -5322,9 +5337,9 @@
       <c r="F14" s="26"/>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="208"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="203"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="196"/>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="88">
@@ -5335,7 +5350,7 @@
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="300">
+      <c r="C15" s="126">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
@@ -5344,9 +5359,9 @@
       <c r="F15" s="26"/>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="203"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="196"/>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="88">
@@ -5357,7 +5372,7 @@
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="300">
+      <c r="C16" s="126">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
@@ -5366,9 +5381,9 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="203"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="196"/>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="88">
@@ -5379,7 +5394,7 @@
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C17" s="300">
+      <c r="C17" s="126">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
@@ -5388,9 +5403,9 @@
       <c r="F17" s="26"/>
       <c r="G17" s="27"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="203"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="196"/>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="88">
@@ -5401,7 +5416,7 @@
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="300">
+      <c r="C18" s="126">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
@@ -5410,9 +5425,9 @@
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="208"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="203"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="196"/>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="88">
@@ -5423,7 +5438,7 @@
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C19" s="300">
+      <c r="C19" s="126">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
@@ -5432,9 +5447,9 @@
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="208"/>
-      <c r="J19" s="194"/>
-      <c r="K19" s="203"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="189"/>
+      <c r="K19" s="196"/>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="92">
@@ -5445,7 +5460,7 @@
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="301">
+      <c r="C20" s="127">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
@@ -5454,9 +5469,9 @@
       <c r="F20" s="26"/>
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="208"/>
-      <c r="J20" s="194"/>
-      <c r="K20" s="203"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="189"/>
+      <c r="K20" s="196"/>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="88">
@@ -5467,7 +5482,7 @@
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C21" s="300">
+      <c r="C21" s="126">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
@@ -5476,9 +5491,9 @@
       <c r="F21" s="26"/>
       <c r="G21" s="27"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="208"/>
-      <c r="J21" s="194"/>
-      <c r="K21" s="203"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="196"/>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="88">
@@ -5489,7 +5504,7 @@
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C22" s="301">
+      <c r="C22" s="127">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
@@ -5498,9 +5513,9 @@
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="208"/>
-      <c r="J22" s="194"/>
-      <c r="K22" s="203"/>
+      <c r="I22" s="200"/>
+      <c r="J22" s="189"/>
+      <c r="K22" s="196"/>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="88">
@@ -5511,7 +5526,7 @@
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C23" s="301">
+      <c r="C23" s="127">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
@@ -5520,9 +5535,9 @@
       <c r="F23" s="26"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="194"/>
-      <c r="K23" s="203"/>
+      <c r="I23" s="200"/>
+      <c r="J23" s="189"/>
+      <c r="K23" s="196"/>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="88">
@@ -5533,7 +5548,7 @@
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="300">
+      <c r="C24" s="126">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
@@ -5542,9 +5557,9 @@
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="194"/>
-      <c r="K24" s="203"/>
+      <c r="I24" s="200"/>
+      <c r="J24" s="189"/>
+      <c r="K24" s="196"/>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="88">
@@ -5555,7 +5570,7 @@
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C25" s="300">
+      <c r="C25" s="126">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
@@ -5564,9 +5579,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="208"/>
-      <c r="J25" s="194"/>
-      <c r="K25" s="203"/>
+      <c r="I25" s="200"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="196"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="88">
@@ -5577,7 +5592,7 @@
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C26" s="300">
+      <c r="C26" s="126">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
@@ -5586,9 +5601,9 @@
       <c r="F26" s="26"/>
       <c r="G26" s="27"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="208"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="203"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="189"/>
+      <c r="K26" s="196"/>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="88">
@@ -5599,7 +5614,7 @@
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C27" s="300">
+      <c r="C27" s="126">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
@@ -5608,9 +5623,9 @@
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="194"/>
-      <c r="K27" s="203"/>
+      <c r="I27" s="200"/>
+      <c r="J27" s="189"/>
+      <c r="K27" s="196"/>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="88">
@@ -5621,7 +5636,7 @@
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C28" s="300">
+      <c r="C28" s="126">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
@@ -5630,9 +5645,9 @@
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="208"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="203"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="189"/>
+      <c r="K28" s="196"/>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="88">
@@ -5643,7 +5658,7 @@
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="300">
+      <c r="C29" s="126">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
@@ -5652,9 +5667,9 @@
       <c r="F29" s="26"/>
       <c r="G29" s="27"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="208"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="203"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="189"/>
+      <c r="K29" s="196"/>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="92">
@@ -5665,7 +5680,7 @@
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="301">
+      <c r="C30" s="127">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
@@ -5674,9 +5689,9 @@
       <c r="F30" s="26"/>
       <c r="G30" s="27"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="208"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="203"/>
+      <c r="I30" s="200"/>
+      <c r="J30" s="189"/>
+      <c r="K30" s="196"/>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="88">
@@ -5687,7 +5702,7 @@
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C31" s="300">
+      <c r="C31" s="126">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
@@ -5696,9 +5711,9 @@
       <c r="F31" s="26"/>
       <c r="G31" s="27"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="203"/>
+      <c r="I31" s="200"/>
+      <c r="J31" s="189"/>
+      <c r="K31" s="196"/>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="88">
@@ -5709,7 +5724,7 @@
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C32" s="301">
+      <c r="C32" s="127">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
@@ -5718,9 +5733,9 @@
       <c r="F32" s="26"/>
       <c r="G32" s="27"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="208"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="203"/>
+      <c r="I32" s="200"/>
+      <c r="J32" s="189"/>
+      <c r="K32" s="196"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="88">
@@ -5731,7 +5746,7 @@
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C33" s="301">
+      <c r="C33" s="127">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
@@ -5740,9 +5755,9 @@
       <c r="F33" s="26"/>
       <c r="G33" s="27"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="208"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="203"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="189"/>
+      <c r="K33" s="196"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="88">
@@ -5753,7 +5768,7 @@
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="300">
+      <c r="C34" s="126">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
@@ -5762,9 +5777,9 @@
       <c r="F34" s="26"/>
       <c r="G34" s="27"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="208"/>
-      <c r="J34" s="194"/>
-      <c r="K34" s="203"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="189"/>
+      <c r="K34" s="196"/>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="88">
@@ -5775,7 +5790,7 @@
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C35" s="300">
+      <c r="C35" s="126">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
@@ -5784,9 +5799,9 @@
       <c r="F35" s="26"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="208"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="203"/>
+      <c r="I35" s="200"/>
+      <c r="J35" s="189"/>
+      <c r="K35" s="196"/>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="88">
@@ -5797,7 +5812,7 @@
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C36" s="300">
+      <c r="C36" s="126">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
@@ -5806,9 +5821,9 @@
       <c r="F36" s="26"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="208"/>
-      <c r="J36" s="194"/>
-      <c r="K36" s="203"/>
+      <c r="I36" s="200"/>
+      <c r="J36" s="189"/>
+      <c r="K36" s="196"/>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="88">
@@ -5819,7 +5834,7 @@
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="300">
+      <c r="C37" s="126">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
@@ -5828,9 +5843,9 @@
       <c r="F37" s="26"/>
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="203"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="189"/>
+      <c r="K37" s="196"/>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="88">
@@ -5841,7 +5856,7 @@
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C38" s="300">
+      <c r="C38" s="126">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
@@ -5850,9 +5865,9 @@
       <c r="F38" s="26"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="208"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="203"/>
+      <c r="I38" s="200"/>
+      <c r="J38" s="189"/>
+      <c r="K38" s="196"/>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="93">
@@ -5863,7 +5878,7 @@
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="302">
+      <c r="C39" s="128">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
@@ -5872,16 +5887,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="208"/>
-      <c r="J39" s="194"/>
-      <c r="K39" s="203"/>
+      <c r="I39" s="200"/>
+      <c r="J39" s="189"/>
+      <c r="K39" s="196"/>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="225" t="s">
+      <c r="A40" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="226"/>
-      <c r="C40" s="226"/>
+      <c r="B40" s="222"/>
+      <c r="C40" s="222"/>
       <c r="D40" s="29" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -5902,16 +5917,16 @@
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="194"/>
-      <c r="J40" s="194"/>
-      <c r="K40" s="203"/>
+      <c r="I40" s="189"/>
+      <c r="J40" s="189"/>
+      <c r="K40" s="196"/>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="215" t="s">
+      <c r="A41" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="216"/>
-      <c r="C41" s="216"/>
+      <c r="B41" s="179"/>
+      <c r="C41" s="179"/>
       <c r="D41" s="32">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -5932,16 +5947,16 @@
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="194"/>
-      <c r="J41" s="194"/>
-      <c r="K41" s="203"/>
+      <c r="I41" s="189"/>
+      <c r="J41" s="189"/>
+      <c r="K41" s="196"/>
     </row>
     <row r="42" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="211" t="s">
+      <c r="A42" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="212"/>
-      <c r="C42" s="212"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="173"/>
       <c r="D42" s="35">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -5962,16 +5977,16 @@
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="196"/>
-      <c r="J42" s="196"/>
-      <c r="K42" s="204"/>
+      <c r="I42" s="181"/>
+      <c r="J42" s="181"/>
+      <c r="K42" s="197"/>
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
+      <c r="B43" s="167"/>
+      <c r="C43" s="167"/>
       <c r="D43" s="38" t="s">
         <v>22</v>
       </c>
@@ -5988,8 +6003,8 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
-      <c r="B44" s="146"/>
-      <c r="C44" s="146"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="166"/>
       <c r="D44" s="38"/>
       <c r="F44" s="39"/>
       <c r="G44" s="40"/>
@@ -5998,11 +6013,11 @@
       <c r="J44" s="17"/>
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="129" t="s">
+      <c r="A45" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="129"/>
-      <c r="C45" s="129"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="151"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
       <c r="F45" s="40" t="s">
@@ -6015,11 +6030,11 @@
       <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="129"/>
-      <c r="C46" s="129"/>
+      <c r="B46" s="151"/>
+      <c r="C46" s="151"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
@@ -6044,15 +6059,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A7:C9"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="A1:J1"/>
@@ -6069,6 +6075,15 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A7:C9"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="notBetween">
@@ -6104,77 +6119,83 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C41" sqref="C41:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="21.42578125" style="95" customWidth="1"/>
     <col min="3" max="5" width="12.85546875" style="95" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="95" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="95" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="126"/>
+    <col min="6" max="6" width="12" style="95" customWidth="1"/>
+    <col min="7" max="7" width="5" style="95" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="95" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="122"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="231" t="s">
+    <row r="1" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="295" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="233"/>
-    </row>
-    <row r="2" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="297"/>
+    </row>
+    <row r="2" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="96"/>
       <c r="B2" s="97"/>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
       <c r="E2" s="97"/>
       <c r="F2" s="97"/>
-      <c r="G2" s="98" t="s">
+      <c r="G2" s="97"/>
+      <c r="H2" s="98" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="95" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="277" t="s">
+    <row r="3" spans="1:8" s="95" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="233" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="278"/>
-      <c r="C3" s="278"/>
-      <c r="D3" s="278"/>
-      <c r="E3" s="278"/>
-      <c r="F3" s="278"/>
-      <c r="G3" s="279"/>
-    </row>
-    <row r="4" spans="1:7" s="95" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="208" t="s">
+      <c r="B3" s="234"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="235"/>
+    </row>
+    <row r="4" spans="1:8" s="95" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="203"/>
-    </row>
-    <row r="5" spans="1:7" s="95" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="274" t="s">
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="196"/>
+    </row>
+    <row r="5" spans="1:8" s="95" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="230" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="275"/>
-      <c r="C5" s="275"/>
-      <c r="D5" s="275"/>
-      <c r="E5" s="275"/>
-      <c r="F5" s="275"/>
-      <c r="G5" s="276"/>
-    </row>
-    <row r="6" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="231"/>
+      <c r="C5" s="231"/>
+      <c r="D5" s="231"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="231"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="232"/>
+    </row>
+    <row r="6" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
         <v>47</v>
       </c>
@@ -6184,20 +6205,21 @@
       <c r="C6" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="234">
+      <c r="D6" s="260">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="235"/>
-      <c r="F6" s="227" t="s">
+      <c r="E6" s="262"/>
+      <c r="F6" s="243" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="236">
+      <c r="G6" s="244"/>
+      <c r="H6" s="238">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="99" t="s">
         <v>50</v>
       </c>
@@ -6205,15 +6227,16 @@
       <c r="C7" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="234">
+      <c r="D7" s="260">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="235"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="237"/>
-    </row>
-    <row r="8" spans="1:7" s="95" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="262"/>
+      <c r="F7" s="300"/>
+      <c r="G7" s="259"/>
+      <c r="H7" s="298"/>
+    </row>
+    <row r="8" spans="1:8" s="95" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
         <v>52</v>
       </c>
@@ -6224,20 +6247,21 @@
       <c r="C8" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="227">
+      <c r="D8" s="294">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="227"/>
-      <c r="F8" s="228" t="s">
+      <c r="E8" s="294"/>
+      <c r="F8" s="243" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="236">
+      <c r="G8" s="244"/>
+      <c r="H8" s="238">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="105" t="s">
         <v>54</v>
       </c>
@@ -6245,17 +6269,18 @@
         <f>Page1!G44</f>
         <v>461303600</v>
       </c>
-      <c r="C9" s="228" t="s">
+      <c r="C9" s="241" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="284" t="s">
+      <c r="D9" s="243" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="285"/>
-      <c r="F9" s="229"/>
-      <c r="G9" s="282"/>
-    </row>
-    <row r="10" spans="1:7" s="95" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="244"/>
+      <c r="F9" s="301"/>
+      <c r="G9" s="302"/>
+      <c r="H9" s="239"/>
+    </row>
+    <row r="10" spans="1:8" s="95" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="106" t="s">
         <v>57</v>
       </c>
@@ -6263,34 +6288,36 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="230"/>
-      <c r="D10" s="286"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="230"/>
-      <c r="G10" s="283"/>
-    </row>
-    <row r="11" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="288" t="s">
+      <c r="C10" s="242"/>
+      <c r="D10" s="245"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="245"/>
+      <c r="G10" s="246"/>
+      <c r="H10" s="240"/>
+    </row>
+    <row r="11" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="247" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="290" t="s">
+      <c r="B11" s="249" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="292" t="s">
+      <c r="C11" s="251" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="293"/>
-      <c r="E11" s="294"/>
-      <c r="F11" s="290" t="s">
+      <c r="D11" s="252"/>
+      <c r="E11" s="253"/>
+      <c r="F11" s="303" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="295" t="s">
+      <c r="G11" s="304"/>
+      <c r="H11" s="254" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="289"/>
-      <c r="B12" s="291"/>
+    <row r="12" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="248"/>
+      <c r="B12" s="250"/>
       <c r="C12" s="108" t="s">
         <v>62</v>
       </c>
@@ -6300,10 +6327,11 @@
       <c r="E12" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="291"/>
-      <c r="G12" s="296"/>
-    </row>
-    <row r="13" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="305"/>
+      <c r="G12" s="306"/>
+      <c r="H12" s="255"/>
+    </row>
+    <row r="13" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="109" t="s">
         <v>65</v>
       </c>
@@ -6319,177 +6347,185 @@
       <c r="E13" s="111">
         <v>20</v>
       </c>
-      <c r="F13" s="112" t="e">
+      <c r="F13" s="307" t="e">
         <f>Page1!D39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="82" t="s">
+      <c r="G13" s="308"/>
+      <c r="H13" s="82" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="113" t="s">
+    <row r="14" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="115">
+      <c r="C14" s="114">
         <v>18</v>
       </c>
-      <c r="D14" s="115">
+      <c r="D14" s="114">
         <v>23</v>
       </c>
-      <c r="E14" s="115">
+      <c r="E14" s="114">
         <v>28</v>
       </c>
-      <c r="F14" s="116" t="e">
+      <c r="F14" s="205" t="e">
         <f>Page1!E39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="117" t="s">
+      <c r="G14" s="206"/>
+      <c r="H14" s="115" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="113" t="s">
+    <row r="15" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="115">
+      <c r="C15" s="114">
         <v>300</v>
       </c>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="115" t="s">
+      <c r="E15" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="61" t="e">
+      <c r="F15" s="205" t="e">
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="238" t="s">
+      <c r="G15" s="206"/>
+      <c r="H15" s="290" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="113" t="s">
+    <row r="16" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="115">
+      <c r="C16" s="114">
         <v>300</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="61" t="e">
+      <c r="F16" s="205" t="e">
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="222"/>
-    </row>
-    <row r="17" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="113" t="s">
+      <c r="G16" s="206"/>
+      <c r="H16" s="226"/>
+    </row>
+    <row r="17" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="115">
+      <c r="C17" s="114">
         <v>900</v>
       </c>
-      <c r="D17" s="115" t="s">
+      <c r="D17" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="115">
+      <c r="E17" s="114">
         <v>1200</v>
       </c>
-      <c r="F17" s="61" t="e">
+      <c r="F17" s="205" t="e">
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="222"/>
-    </row>
-    <row r="18" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="113" t="s">
+      <c r="G17" s="206"/>
+      <c r="H17" s="226"/>
+    </row>
+    <row r="18" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="115">
+      <c r="C18" s="114">
         <v>700</v>
       </c>
-      <c r="D18" s="115" t="s">
+      <c r="D18" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="115">
+      <c r="E18" s="114">
         <v>1000</v>
       </c>
-      <c r="F18" s="61" t="e">
+      <c r="F18" s="205" t="e">
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="222"/>
-    </row>
-    <row r="19" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="113" t="s">
+      <c r="G18" s="206"/>
+      <c r="H18" s="226"/>
+    </row>
+    <row r="19" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="115">
+      <c r="C19" s="114">
         <v>350</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="115" t="s">
+      <c r="E19" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="61" t="e">
+      <c r="F19" s="205" t="e">
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="222"/>
-    </row>
-    <row r="20" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="113" t="s">
+      <c r="G19" s="206"/>
+      <c r="H19" s="226"/>
+    </row>
+    <row r="20" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="115">
+      <c r="C20" s="114">
         <v>400</v>
       </c>
-      <c r="D20" s="115" t="s">
+      <c r="D20" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="115" t="s">
+      <c r="E20" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="61" t="e">
+      <c r="F20" s="205" t="e">
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="222"/>
-    </row>
-    <row r="21" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="113" t="s">
+      <c r="G20" s="206"/>
+      <c r="H20" s="226"/>
+    </row>
+    <row r="21" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="113" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="33">
@@ -6501,17 +6537,18 @@
       <c r="E21" s="33">
         <v>0.6</v>
       </c>
-      <c r="F21" s="33" t="e">
+      <c r="F21" s="205" t="e">
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="222"/>
-    </row>
-    <row r="22" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="113" t="s">
+      <c r="G21" s="206"/>
+      <c r="H21" s="226"/>
+    </row>
+    <row r="22" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="113" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="33">
@@ -6523,17 +6560,18 @@
       <c r="E22" s="33">
         <v>1.4</v>
       </c>
-      <c r="F22" s="33" t="e">
+      <c r="F22" s="205" t="e">
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="163"/>
-    </row>
-    <row r="23" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="113" t="s">
+      <c r="G22" s="206"/>
+      <c r="H22" s="146"/>
+    </row>
+    <row r="23" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="113" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="61">
@@ -6545,22 +6583,23 @@
       <c r="E23" s="61">
         <v>400</v>
       </c>
-      <c r="F23" s="61" t="e">
+      <c r="F23" s="205" t="e">
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="117" t="s">
+      <c r="G23" s="206"/>
+      <c r="H23" s="115" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="113" t="s">
+    <row r="24" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="115" t="s">
+      <c r="C24" s="114" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="61">
@@ -6571,42 +6610,44 @@
         <f>Page2!J10</f>
         <v>253</v>
       </c>
-      <c r="F24" s="61" t="e">
+      <c r="F24" s="205" t="e">
         <f>Page2!I41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="117" t="s">
+      <c r="G24" s="206"/>
+      <c r="H24" s="115" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="113" t="s">
+    <row r="25" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="113" t="s">
         <v>89</v>
       </c>
       <c r="C25" s="61">
         <v>6000</v>
       </c>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="115" t="s">
+      <c r="E25" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="61">
+      <c r="F25" s="205">
         <v>6000</v>
       </c>
-      <c r="G25" s="117" t="s">
+      <c r="G25" s="206"/>
+      <c r="H25" s="115" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="119" t="s">
+    <row r="26" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="120" t="s">
+      <c r="B26" s="118" t="s">
         <v>86</v>
       </c>
       <c r="C26" s="83">
@@ -6615,326 +6656,361 @@
       <c r="D26" s="83">
         <v>430</v>
       </c>
-      <c r="E26" s="121">
+      <c r="E26" s="119">
         <v>450</v>
       </c>
-      <c r="F26" s="121" t="e">
+      <c r="F26" s="205" t="e">
         <f>Page2!K41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="118" t="s">
+      <c r="G26" s="206"/>
+      <c r="H26" s="116" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="239" t="s">
+    <row r="27" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="287" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="240"/>
-      <c r="C27" s="240"/>
-      <c r="D27" s="240"/>
-      <c r="E27" s="240"/>
-      <c r="F27" s="240"/>
-      <c r="G27" s="241"/>
-    </row>
-    <row r="28" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="242" t="s">
+      <c r="B27" s="288"/>
+      <c r="C27" s="288"/>
+      <c r="D27" s="288"/>
+      <c r="E27" s="288"/>
+      <c r="F27" s="288"/>
+      <c r="G27" s="288"/>
+      <c r="H27" s="289"/>
+    </row>
+    <row r="28" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="258" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="243"/>
-      <c r="C28" s="244" t="s">
+      <c r="B28" s="259"/>
+      <c r="C28" s="291" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="245"/>
-      <c r="E28" s="246"/>
-      <c r="F28" s="122" t="s">
+      <c r="D28" s="292"/>
+      <c r="E28" s="293"/>
+      <c r="F28" s="205" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="82" t="s">
+      <c r="G28" s="206"/>
+      <c r="H28" s="82" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="247" t="s">
+    <row r="29" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="235"/>
-      <c r="C29" s="248" t="s">
+      <c r="B29" s="262"/>
+      <c r="C29" s="281" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="249"/>
-      <c r="E29" s="250"/>
-      <c r="F29" s="60" t="s">
+      <c r="D29" s="282"/>
+      <c r="E29" s="283"/>
+      <c r="F29" s="205" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="117" t="s">
+      <c r="G29" s="206"/>
+      <c r="H29" s="115" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="247" t="s">
+    <row r="30" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="263" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="235"/>
-      <c r="C30" s="248" t="s">
+      <c r="B30" s="262"/>
+      <c r="C30" s="281" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="249"/>
-      <c r="E30" s="250"/>
-      <c r="F30" s="60" t="s">
+      <c r="D30" s="282"/>
+      <c r="E30" s="283"/>
+      <c r="F30" s="205" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="82" t="s">
+      <c r="G30" s="206"/>
+      <c r="H30" s="82" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="247" t="s">
+    <row r="31" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="263" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="235"/>
-      <c r="C31" s="248" t="s">
+      <c r="B31" s="262"/>
+      <c r="C31" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="249"/>
-      <c r="E31" s="250"/>
-      <c r="F31" s="60" t="s">
+      <c r="D31" s="282"/>
+      <c r="E31" s="283"/>
+      <c r="F31" s="205" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="117" t="s">
+      <c r="G31" s="206"/>
+      <c r="H31" s="115" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="247" t="s">
+    <row r="32" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="263" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="235"/>
-      <c r="C32" s="248" t="s">
+      <c r="B32" s="262"/>
+      <c r="C32" s="281" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="249"/>
-      <c r="E32" s="250"/>
-      <c r="F32" s="60" t="s">
+      <c r="D32" s="282"/>
+      <c r="E32" s="283"/>
+      <c r="F32" s="205" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="117" t="s">
+      <c r="G32" s="206"/>
+      <c r="H32" s="115" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="247" t="s">
+    <row r="33" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="263" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="235"/>
-      <c r="C33" s="248" t="s">
+      <c r="B33" s="262"/>
+      <c r="C33" s="281" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="249"/>
-      <c r="E33" s="250"/>
-      <c r="F33" s="60" t="s">
+      <c r="D33" s="282"/>
+      <c r="E33" s="283"/>
+      <c r="F33" s="205" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="117" t="s">
+      <c r="G33" s="206"/>
+      <c r="H33" s="115" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="95" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="155" t="s">
+    <row r="34" spans="1:8" s="95" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="156"/>
-      <c r="C34" s="253" t="s">
+      <c r="B34" s="139"/>
+      <c r="C34" s="284" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="254"/>
-      <c r="E34" s="255"/>
-      <c r="F34" s="123" t="s">
+      <c r="D34" s="285"/>
+      <c r="E34" s="286"/>
+      <c r="F34" s="205" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="128" t="s">
+      <c r="G34" s="206"/>
+      <c r="H34" s="124" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="239" t="s">
+    <row r="35" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="287" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="240"/>
-      <c r="C35" s="240"/>
-      <c r="D35" s="240"/>
-      <c r="E35" s="240"/>
-      <c r="F35" s="240"/>
-      <c r="G35" s="241"/>
-    </row>
-    <row r="36" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="149" t="s">
+      <c r="B35" s="288"/>
+      <c r="C35" s="288"/>
+      <c r="D35" s="288"/>
+      <c r="E35" s="288"/>
+      <c r="F35" s="288"/>
+      <c r="G35" s="288"/>
+      <c r="H35" s="289"/>
+    </row>
+    <row r="36" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="150"/>
-      <c r="C36" s="251" t="s">
+      <c r="B36" s="131"/>
+      <c r="C36" s="279" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="252"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="10" t="s">
+      <c r="D36" s="280"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="205" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="82" t="s">
+      <c r="G36" s="206"/>
+      <c r="H36" s="82" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="242" t="s">
+    <row r="37" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="258" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="243"/>
-      <c r="C37" s="234" t="s">
+      <c r="B37" s="259"/>
+      <c r="C37" s="260" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="257"/>
-      <c r="E37" s="235"/>
-      <c r="F37" s="115" t="s">
+      <c r="D37" s="261"/>
+      <c r="E37" s="262"/>
+      <c r="F37" s="205" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="117" t="s">
+      <c r="G37" s="206"/>
+      <c r="H37" s="115" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="247" t="s">
+    <row r="38" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="263" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="235"/>
-      <c r="C38" s="234" t="s">
+      <c r="B38" s="262"/>
+      <c r="C38" s="260" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="257"/>
-      <c r="E38" s="235"/>
-      <c r="F38" s="115" t="s">
+      <c r="D38" s="261"/>
+      <c r="E38" s="262"/>
+      <c r="F38" s="205" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="117" t="s">
+      <c r="G38" s="206"/>
+      <c r="H38" s="115" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="155" t="s">
+    <row r="39" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="156"/>
-      <c r="C39" s="280" t="s">
+      <c r="B39" s="139"/>
+      <c r="C39" s="236" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="281"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="1" t="s">
+      <c r="D39" s="237"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="205" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="118" t="s">
+      <c r="G39" s="206"/>
+      <c r="H39" s="116" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="258" t="s">
+    <row r="40" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="264" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="259"/>
-      <c r="C40" s="260" t="s">
+      <c r="B40" s="265"/>
+      <c r="C40" s="266" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="261"/>
-      <c r="E40" s="262"/>
-      <c r="F40" s="260" t="s">
+      <c r="D40" s="267"/>
+      <c r="E40" s="268"/>
+      <c r="F40" s="266" t="s">
         <v>137</v>
       </c>
-      <c r="G40" s="262"/>
-    </row>
-    <row r="41" spans="1:7" s="95" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="263"/>
-      <c r="B41" s="264"/>
-      <c r="C41" s="267"/>
-      <c r="D41" s="268"/>
-      <c r="E41" s="269"/>
-      <c r="F41" s="267"/>
-      <c r="G41" s="269"/>
-    </row>
-    <row r="42" spans="1:7" s="95" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="265"/>
-      <c r="B42" s="266"/>
-      <c r="C42" s="270" t="s">
+      <c r="G40" s="267"/>
+      <c r="H40" s="268"/>
+    </row>
+    <row r="41" spans="1:8" s="95" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="269"/>
+      <c r="B41" s="270"/>
+      <c r="C41" s="273"/>
+      <c r="D41" s="274"/>
+      <c r="E41" s="275"/>
+      <c r="F41" s="273"/>
+      <c r="G41" s="299"/>
+      <c r="H41" s="275"/>
+    </row>
+    <row r="42" spans="1:8" s="95" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="269"/>
+      <c r="B42" s="270"/>
+      <c r="C42" s="200"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="196"/>
+      <c r="F42" s="200"/>
+      <c r="G42" s="180"/>
+      <c r="H42" s="196"/>
+    </row>
+    <row r="43" spans="1:8" s="95" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="271"/>
+      <c r="B43" s="272"/>
+      <c r="C43" s="276" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="271"/>
-      <c r="E42" s="272"/>
-      <c r="F42" s="270" t="s">
+      <c r="D43" s="277"/>
+      <c r="E43" s="278"/>
+      <c r="F43" s="276" t="s">
         <v>138</v>
       </c>
-      <c r="G42" s="272"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="124"/>
-      <c r="B43" s="124"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="297"/>
-      <c r="F43" s="297"/>
-      <c r="G43" s="297"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="125"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="124"/>
+      <c r="G43" s="277"/>
+      <c r="H43" s="278"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="120"/>
+      <c r="B44" s="120"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="120"/>
       <c r="E44" s="256"/>
       <c r="F44" s="256"/>
       <c r="G44" s="256"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="273" t="s">
+      <c r="H44" s="256"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="121"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="257"/>
+      <c r="F45" s="257"/>
+      <c r="G45" s="257"/>
+      <c r="H45" s="257"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="229" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="273"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="273" t="s">
+      <c r="B47" s="229"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="229" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="273"/>
+      <c r="B48" s="229"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+  <mergeCells count="82">
     <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="F8:G10"/>
+    <mergeCell ref="H15:H22"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="A30:B30"/>
@@ -6947,20 +7023,41 @@
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="A41:B43"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E44:H44"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-18gsm-250P-ABQR.xlsx
+++ b/backend/templates/UC-18gsm-250P-ABQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022AE516-17FA-4BD4-95E2-E0C1F895EA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91EF4CA-C54C-4100-98E3-4634775D356B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1430,7 +1430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2298,6 +2298,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2367,9 +2370,6 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2395,6 +2395,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6122,7 +6128,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:E41"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6136,16 +6142,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="296" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="297"/>
+      <c r="B1" s="297"/>
+      <c r="C1" s="297"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="298"/>
     </row>
     <row r="2" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="96"/>
@@ -6234,7 +6240,7 @@
       <c r="E7" s="262"/>
       <c r="F7" s="300"/>
       <c r="G7" s="259"/>
-      <c r="H7" s="298"/>
+      <c r="H7" s="299"/>
     </row>
     <row r="8" spans="1:8" s="95" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
@@ -6247,11 +6253,11 @@
       <c r="C8" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="294">
+      <c r="D8" s="295">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="294"/>
+      <c r="E8" s="295"/>
       <c r="F8" s="243" t="s">
         <v>9</v>
       </c>
@@ -6402,7 +6408,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G15" s="206"/>
-      <c r="H15" s="290" t="s">
+      <c r="H15" s="291" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6537,11 +6543,11 @@
       <c r="E21" s="33">
         <v>0.6</v>
       </c>
-      <c r="F21" s="205" t="e">
+      <c r="F21" s="309" t="e">
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="206"/>
+      <c r="G21" s="310"/>
       <c r="H21" s="226"/>
     </row>
     <row r="22" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6560,11 +6566,11 @@
       <c r="E22" s="33">
         <v>1.4</v>
       </c>
-      <c r="F22" s="205" t="e">
+      <c r="F22" s="309" t="e">
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="206"/>
+      <c r="G22" s="310"/>
       <c r="H22" s="146"/>
     </row>
     <row r="23" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6669,27 +6675,27 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="287" t="s">
+      <c r="A27" s="288" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="288"/>
-      <c r="C27" s="288"/>
-      <c r="D27" s="288"/>
-      <c r="E27" s="288"/>
-      <c r="F27" s="288"/>
-      <c r="G27" s="288"/>
-      <c r="H27" s="289"/>
+      <c r="B27" s="289"/>
+      <c r="C27" s="289"/>
+      <c r="D27" s="289"/>
+      <c r="E27" s="289"/>
+      <c r="F27" s="289"/>
+      <c r="G27" s="289"/>
+      <c r="H27" s="290"/>
     </row>
     <row r="28" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="258" t="s">
         <v>93</v>
       </c>
       <c r="B28" s="259"/>
-      <c r="C28" s="291" t="s">
+      <c r="C28" s="292" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="292"/>
-      <c r="E28" s="293"/>
+      <c r="D28" s="293"/>
+      <c r="E28" s="294"/>
       <c r="F28" s="205" t="s">
         <v>95</v>
       </c>
@@ -6703,11 +6709,11 @@
         <v>97</v>
       </c>
       <c r="B29" s="262"/>
-      <c r="C29" s="281" t="s">
+      <c r="C29" s="282" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="282"/>
-      <c r="E29" s="283"/>
+      <c r="D29" s="283"/>
+      <c r="E29" s="284"/>
       <c r="F29" s="205" t="s">
         <v>95</v>
       </c>
@@ -6721,11 +6727,11 @@
         <v>99</v>
       </c>
       <c r="B30" s="262"/>
-      <c r="C30" s="281" t="s">
+      <c r="C30" s="282" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="282"/>
-      <c r="E30" s="283"/>
+      <c r="D30" s="283"/>
+      <c r="E30" s="284"/>
       <c r="F30" s="205" t="s">
         <v>95</v>
       </c>
@@ -6739,11 +6745,11 @@
         <v>101</v>
       </c>
       <c r="B31" s="262"/>
-      <c r="C31" s="281" t="s">
+      <c r="C31" s="282" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="282"/>
-      <c r="E31" s="283"/>
+      <c r="D31" s="283"/>
+      <c r="E31" s="284"/>
       <c r="F31" s="205" t="s">
         <v>95</v>
       </c>
@@ -6757,11 +6763,11 @@
         <v>104</v>
       </c>
       <c r="B32" s="262"/>
-      <c r="C32" s="281" t="s">
+      <c r="C32" s="282" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="282"/>
-      <c r="E32" s="283"/>
+      <c r="D32" s="283"/>
+      <c r="E32" s="284"/>
       <c r="F32" s="205" t="s">
         <v>95</v>
       </c>
@@ -6775,11 +6781,11 @@
         <v>106</v>
       </c>
       <c r="B33" s="262"/>
-      <c r="C33" s="281" t="s">
+      <c r="C33" s="282" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="282"/>
-      <c r="E33" s="283"/>
+      <c r="D33" s="283"/>
+      <c r="E33" s="284"/>
       <c r="F33" s="205" t="s">
         <v>95</v>
       </c>
@@ -6793,11 +6799,11 @@
         <v>108</v>
       </c>
       <c r="B34" s="139"/>
-      <c r="C34" s="284" t="s">
+      <c r="C34" s="285" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="285"/>
-      <c r="E34" s="286"/>
+      <c r="D34" s="286"/>
+      <c r="E34" s="287"/>
       <c r="F34" s="205" t="s">
         <v>95</v>
       </c>
@@ -6807,26 +6813,26 @@
       </c>
     </row>
     <row r="35" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="287" t="s">
+      <c r="A35" s="288" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="288"/>
-      <c r="C35" s="288"/>
-      <c r="D35" s="288"/>
-      <c r="E35" s="288"/>
-      <c r="F35" s="288"/>
-      <c r="G35" s="288"/>
-      <c r="H35" s="289"/>
+      <c r="B35" s="289"/>
+      <c r="C35" s="289"/>
+      <c r="D35" s="289"/>
+      <c r="E35" s="289"/>
+      <c r="F35" s="289"/>
+      <c r="G35" s="289"/>
+      <c r="H35" s="290"/>
     </row>
     <row r="36" spans="1:8" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="130" t="s">
         <v>111</v>
       </c>
       <c r="B36" s="131"/>
-      <c r="C36" s="279" t="s">
+      <c r="C36" s="280" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="280"/>
+      <c r="D36" s="281"/>
       <c r="E36" s="131"/>
       <c r="F36" s="205" t="s">
         <v>95</v>
@@ -6913,10 +6919,10 @@
       <c r="D41" s="274"/>
       <c r="E41" s="275"/>
       <c r="F41" s="273"/>
-      <c r="G41" s="299"/>
+      <c r="G41" s="276"/>
       <c r="H41" s="275"/>
     </row>
-    <row r="42" spans="1:8" s="95" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="95" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="269"/>
       <c r="B42" s="270"/>
       <c r="C42" s="200"/>
@@ -6929,16 +6935,16 @@
     <row r="43" spans="1:8" s="95" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="271"/>
       <c r="B43" s="272"/>
-      <c r="C43" s="276" t="s">
+      <c r="C43" s="277" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="277"/>
-      <c r="E43" s="278"/>
-      <c r="F43" s="276" t="s">
+      <c r="D43" s="278"/>
+      <c r="E43" s="279"/>
+      <c r="F43" s="277" t="s">
         <v>138</v>
       </c>
-      <c r="G43" s="277"/>
-      <c r="H43" s="278"/>
+      <c r="G43" s="278"/>
+      <c r="H43" s="279"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="120"/>
@@ -6976,8 +6982,6 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F30:G30"/>
@@ -7011,14 +7015,6 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="A34:B34"/>
@@ -7026,23 +7022,32 @@
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
     <mergeCell ref="F36:G36"/>
-    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="A41:B43"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="A41:B43"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A4:H4"/>
@@ -7058,6 +7063,7 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
